--- a/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
+++ b/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4FC98-5288-5B4D-8873-F7106E0DCAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E92CF0-EC30-D342-9027-A894AD92A5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15860" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="236">
   <si>
     <t>genus</t>
   </si>
@@ -477,9 +477,6 @@
     <t>not sure if "n" or "m" in Claramo/ Clarano</t>
   </si>
   <si>
-    <t xml:space="preserve">cannot understand Clar amo + inshade </t>
-  </si>
-  <si>
     <t>Osmorhiza berteroi was previously chilensis. Recent iNat observations on Mt. Sutil</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>vSciName</t>
   </si>
   <si>
-    <t>Clar amo + inshade</t>
-  </si>
-  <si>
     <t>Osmorhiza berteroi</t>
   </si>
   <si>
@@ -876,9 +870,6 @@
     <t>HJ-27-2</t>
   </si>
   <si>
-    <t>HJ-27-3</t>
-  </si>
-  <si>
     <t>HJ-27-4</t>
   </si>
   <si>
@@ -1060,6 +1051,9 @@
   </si>
   <si>
     <t>HJ-27-64</t>
+  </si>
+  <si>
+    <t>in shade</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AB65"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1535,13 +1529,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>38</v>
@@ -1618,7 +1612,7 @@
     </row>
     <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1662,6 +1656,7 @@
       <c r="O2" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="U2"/>
       <c r="W2" s="4" t="s">
         <v>34</v>
       </c>
@@ -1674,7 +1669,7 @@
     </row>
     <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1718,6 +1713,10 @@
       <c r="O3" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="U3"/>
+      <c r="W3" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="X3" s="4" t="s">
         <v>31</v>
       </c>
@@ -1727,17 +1726,26 @@
     </row>
     <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1765,28 +1773,25 @@
       <c r="X4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
@@ -1818,25 +1823,28 @@
       <c r="X5" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="AB5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>23</v>
@@ -1874,22 +1882,22 @@
     </row>
     <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -1921,28 +1929,28 @@
       <c r="X7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB7" t="s">
-        <v>45</v>
+      <c r="AB7" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>23</v>
@@ -1974,28 +1982,26 @@
       <c r="X8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="AB8"/>
     </row>
     <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>23</v>
@@ -2027,11 +2033,13 @@
       <c r="X9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="AB9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2043,7 +2051,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -2079,27 +2087,27 @@
         <v>31</v>
       </c>
       <c r="AB10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>23</v>
@@ -2128,16 +2136,19 @@
       <c r="O11" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="R11" t="s">
+        <v>92</v>
+      </c>
       <c r="X11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2152,7 +2163,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>23</v>
@@ -2181,34 +2192,38 @@
       <c r="O12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R12" t="s">
-        <v>94</v>
+      <c r="P12"/>
+      <c r="R12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="X12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>23</v>
@@ -2237,35 +2252,32 @@
       <c r="O13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P13"/>
-      <c r="R13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>98</v>
+      <c r="R13" t="s">
+        <v>92</v>
+      </c>
+      <c r="W13" t="s">
+        <v>95</v>
       </c>
       <c r="X13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB13" t="s">
-        <v>45</v>
-      </c>
+      <c r="AB13"/>
     </row>
     <row r="14" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -2277,10 +2289,10 @@
         <v>20</v>
       </c>
       <c r="I14" s="4">
-        <v>20040212</v>
+        <v>20040312</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>25</v>
@@ -2298,34 +2310,33 @@
         <v>29</v>
       </c>
       <c r="R14" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="X14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB14"/>
+      <c r="AB14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>23</v>
@@ -2355,33 +2366,33 @@
         <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>23</v>
@@ -2411,33 +2422,33 @@
         <v>29</v>
       </c>
       <c r="R16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>23</v>
@@ -2467,7 +2478,7 @@
         <v>29</v>
       </c>
       <c r="R17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X17" s="4" t="s">
         <v>31</v>
@@ -2478,16 +2489,16 @@
     </row>
     <row r="18" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -2523,33 +2534,33 @@
         <v>29</v>
       </c>
       <c r="R18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>23</v>
@@ -2579,33 +2590,33 @@
         <v>29</v>
       </c>
       <c r="R19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>23</v>
@@ -2635,33 +2646,33 @@
         <v>29</v>
       </c>
       <c r="R20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>23</v>
@@ -2691,33 +2702,33 @@
         <v>29</v>
       </c>
       <c r="R21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>23</v>
@@ -2747,33 +2758,33 @@
         <v>29</v>
       </c>
       <c r="R22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>23</v>
@@ -2803,33 +2814,33 @@
         <v>29</v>
       </c>
       <c r="R23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>23</v>
@@ -2859,36 +2870,36 @@
         <v>29</v>
       </c>
       <c r="R24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>20</v>
@@ -2915,36 +2926,34 @@
         <v>29</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB25" t="s">
-        <v>48</v>
-      </c>
+      <c r="AB25"/>
     </row>
     <row r="26" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
-        <v>99</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>20</v>
@@ -2971,16 +2980,18 @@
         <v>29</v>
       </c>
       <c r="R26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB26"/>
-    </row>
-    <row r="27" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="AB26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2992,7 +3003,7 @@
         <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3024,19 +3035,19 @@
       <c r="O27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R27" t="s">
-        <v>96</v>
+      <c r="R27" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3048,7 +3059,7 @@
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
         <v>89</v>
@@ -3081,36 +3092,36 @@
         <v>29</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>20</v>
@@ -3137,33 +3148,30 @@
         <v>29</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X29" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>0</v>
@@ -3193,30 +3201,33 @@
         <v>29</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="X30" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" t="s">
-        <v>104</v>
+      <c r="C31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>0</v>
@@ -3245,34 +3256,28 @@
       <c r="O31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="X31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>0</v>
@@ -3307,7 +3312,7 @@
     </row>
     <row r="33" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3316,16 +3321,16 @@
         <v>106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>20</v>
@@ -3350,6 +3355,9 @@
       </c>
       <c r="O33" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="X33" s="4" t="s">
         <v>31</v>
@@ -3357,25 +3365,25 @@
     </row>
     <row r="34" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>20</v>
@@ -3402,7 +3410,7 @@
         <v>29</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X34" s="4" t="s">
         <v>31</v>
@@ -3410,16 +3418,16 @@
     </row>
     <row r="35" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>40</v>
@@ -3428,7 +3436,7 @@
         <v>115</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>20</v>
@@ -3455,7 +3463,7 @@
         <v>29</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X35" s="4" t="s">
         <v>31</v>
@@ -3463,25 +3471,25 @@
     </row>
     <row r="36" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
+      <c r="F36" t="s">
+        <v>118</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>20</v>
@@ -3506,9 +3514,6 @@
       </c>
       <c r="O36" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="X36" s="4" t="s">
         <v>31</v>
@@ -3516,7 +3521,7 @@
     </row>
     <row r="37" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -3566,7 +3571,7 @@
     </row>
     <row r="38" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -3616,7 +3621,7 @@
     </row>
     <row r="39" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3625,13 +3630,13 @@
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>23</v>
@@ -3666,22 +3671,22 @@
     </row>
     <row r="40" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
         <v>125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>82</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>23</v>
@@ -3716,22 +3721,22 @@
     </row>
     <row r="41" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>23</v>
@@ -3766,22 +3771,22 @@
     </row>
     <row r="42" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>23</v>
@@ -3816,19 +3821,19 @@
     </row>
     <row r="43" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
         <v>130</v>
@@ -3866,7 +3871,7 @@
     </row>
     <row r="44" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3878,7 +3883,7 @@
         <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
         <v>132</v>
@@ -3916,7 +3921,7 @@
     </row>
     <row r="45" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -3925,13 +3930,13 @@
         <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>23</v>
@@ -3966,22 +3971,22 @@
     </row>
     <row r="46" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>23</v>
@@ -4009,6 +4014,9 @@
       </c>
       <c r="O46" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="X46" s="4" t="s">
         <v>31</v>
@@ -4016,25 +4024,25 @@
     </row>
     <row r="47" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>20</v>
@@ -4061,7 +4069,7 @@
         <v>29</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X47" s="4" t="s">
         <v>31</v>
@@ -4069,25 +4077,25 @@
     </row>
     <row r="48" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
         <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
         <v>136</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>20</v>
@@ -4114,7 +4122,7 @@
         <v>29</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X48" s="4" t="s">
         <v>31</v>
@@ -4122,7 +4130,7 @@
     </row>
     <row r="49" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -4137,7 +4145,7 @@
         <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>23</v>
@@ -4167,7 +4175,7 @@
         <v>29</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X49" s="4" t="s">
         <v>31</v>
@@ -4175,19 +4183,19 @@
     </row>
     <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
         <v>141</v>
@@ -4220,7 +4228,7 @@
         <v>29</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X50" s="4" t="s">
         <v>31</v>
@@ -4228,22 +4236,22 @@
     </row>
     <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>23</v>
@@ -4273,7 +4281,7 @@
         <v>29</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X51" s="4" t="s">
         <v>31</v>
@@ -4281,22 +4289,22 @@
     </row>
     <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>23</v>
@@ -4326,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X52" s="4" t="s">
         <v>31</v>
@@ -4334,7 +4342,7 @@
     </row>
     <row r="53" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4379,7 +4387,7 @@
         <v>29</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X53" s="4" t="s">
         <v>31</v>
@@ -4387,7 +4395,7 @@
     </row>
     <row r="54" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -4396,13 +4404,13 @@
         <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>23</v>
@@ -4432,7 +4440,7 @@
         <v>29</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X54" s="4" t="s">
         <v>31</v>
@@ -4440,19 +4448,19 @@
     </row>
     <row r="55" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
         <v>80</v>
@@ -4485,7 +4493,7 @@
         <v>29</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X55" s="4" t="s">
         <v>31</v>
@@ -4493,29 +4501,17 @@
     </row>
     <row r="56" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="I56" s="4">
         <v>20040312</v>
       </c>
@@ -4538,7 +4534,7 @@
         <v>29</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X56" s="4" t="s">
         <v>31</v>
@@ -4546,17 +4542,29 @@
     </row>
     <row r="57" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I57" s="4">
         <v>20040312</v>
       </c>
@@ -4579,7 +4587,7 @@
         <v>29</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X57" s="4" t="s">
         <v>31</v>
@@ -4587,22 +4595,22 @@
     </row>
     <row r="58" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
         <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>23</v>
@@ -4632,7 +4640,7 @@
         <v>29</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X58" s="4" t="s">
         <v>31</v>
@@ -4640,22 +4648,22 @@
     </row>
     <row r="59" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>23</v>
@@ -4684,8 +4692,8 @@
       <c r="O59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="4" t="s">
-        <v>161</v>
+      <c r="W59" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="X59" s="4" t="s">
         <v>31</v>
@@ -4693,22 +4701,22 @@
     </row>
     <row r="60" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>23</v>
@@ -4737,8 +4745,8 @@
       <c r="O60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W60" s="4" t="s">
-        <v>162</v>
+      <c r="R60" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="X60" s="4" t="s">
         <v>31</v>
@@ -4746,22 +4754,22 @@
     </row>
     <row r="61" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>23</v>
@@ -4791,7 +4799,7 @@
         <v>29</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X61" s="4" t="s">
         <v>31</v>
@@ -4799,22 +4807,22 @@
     </row>
     <row r="62" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B62">
+        <v>232</v>
+      </c>
+      <c r="B62" s="4">
         <v>3</v>
       </c>
-      <c r="C62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F62" t="s">
-        <v>157</v>
+      <c r="F62" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>23</v>
@@ -4844,7 +4852,7 @@
         <v>29</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X62" s="4" t="s">
         <v>31</v>
@@ -4852,22 +4860,22 @@
     </row>
     <row r="63" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>23</v>
@@ -4897,7 +4905,7 @@
         <v>29</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X63" s="4" t="s">
         <v>31</v>
@@ -4905,25 +4913,25 @@
     </row>
     <row r="64" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>20</v>
@@ -4950,65 +4958,12 @@
         <v>29</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="V64" s="4">
+        <v>1</v>
       </c>
       <c r="X64" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B65" s="4">
-        <v>3</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="V65" s="4">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
+++ b/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E92CF0-EC30-D342-9027-A894AD92A5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FF9F7-AA1A-084E-A1CF-C1FA0A36EF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15860" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19640" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="237">
   <si>
     <t>genus</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>in shade</t>
+  </si>
+  <si>
+    <t>coodUncM</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1513,18 +1516,18 @@
     <col min="18" max="18" width="16.83203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
     <col min="20" max="20" width="8.6640625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="16.5" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13" style="4" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="4"/>
-    <col min="26" max="26" width="22.83203125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="4" customWidth="1"/>
-    <col min="28" max="28" width="70.6640625" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="4"/>
+    <col min="21" max="22" width="11.33203125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="16.5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13" style="4" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="4"/>
+    <col min="27" max="27" width="22.83203125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="16.5" style="4" customWidth="1"/>
+    <col min="29" max="29" width="70.6640625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1589,28 +1592,31 @@
         <v>32</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>172</v>
       </c>
@@ -1657,17 +1663,18 @@
         <v>29</v>
       </c>
       <c r="U2"/>
-      <c r="W2" s="4" t="s">
+      <c r="V2"/>
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>173</v>
       </c>
@@ -1714,17 +1721,18 @@
         <v>29</v>
       </c>
       <c r="U3"/>
-      <c r="W3" s="4" t="s">
+      <c r="V3"/>
+      <c r="X3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>174</v>
       </c>
@@ -1770,11 +1778,11 @@
       <c r="O4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="Y4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>175</v>
       </c>
@@ -1820,14 +1828,14 @@
       <c r="O5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="Y5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>176</v>
       </c>
@@ -1873,14 +1881,14 @@
       <c r="O6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="Y6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>177</v>
       </c>
@@ -1926,14 +1934,14 @@
       <c r="O7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
@@ -1979,12 +1987,12 @@
       <c r="O8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="Y8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC8"/>
+    </row>
+    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>179</v>
       </c>
@@ -2030,14 +2038,14 @@
       <c r="O9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="Y9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>180</v>
       </c>
@@ -2083,14 +2091,14 @@
       <c r="O10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>181</v>
       </c>
@@ -2139,14 +2147,14 @@
       <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="Y11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>182</v>
       </c>
@@ -2196,17 +2204,17 @@
       <c r="R12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="Y12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>183</v>
       </c>
@@ -2255,15 +2263,15 @@
       <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>95</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB13"/>
-    </row>
-    <row r="14" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13"/>
+    </row>
+    <row r="14" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
@@ -2312,14 +2320,14 @@
       <c r="R14" t="s">
         <v>92</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="Y14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>185</v>
       </c>
@@ -2368,14 +2376,14 @@
       <c r="R15" t="s">
         <v>92</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="Y15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>186</v>
       </c>
@@ -2424,14 +2432,14 @@
       <c r="R16" t="s">
         <v>92</v>
       </c>
-      <c r="X16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="Y16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>187</v>
       </c>
@@ -2480,14 +2488,14 @@
       <c r="R17" t="s">
         <v>92</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="Y17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>188</v>
       </c>
@@ -2536,14 +2544,14 @@
       <c r="R18" t="s">
         <v>92</v>
       </c>
-      <c r="X18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="Y18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>189</v>
       </c>
@@ -2592,14 +2600,14 @@
       <c r="R19" t="s">
         <v>92</v>
       </c>
-      <c r="X19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="Y19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>190</v>
       </c>
@@ -2648,14 +2656,14 @@
       <c r="R20" t="s">
         <v>92</v>
       </c>
-      <c r="X20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="Y20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>191</v>
       </c>
@@ -2704,14 +2712,14 @@
       <c r="R21" t="s">
         <v>92</v>
       </c>
-      <c r="X21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="Y21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
@@ -2760,14 +2768,14 @@
       <c r="R22" t="s">
         <v>92</v>
       </c>
-      <c r="X22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="Y22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>193</v>
       </c>
@@ -2816,14 +2824,14 @@
       <c r="R23" t="s">
         <v>92</v>
       </c>
-      <c r="X23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="Y23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>194</v>
       </c>
@@ -2872,14 +2880,14 @@
       <c r="R24" t="s">
         <v>93</v>
       </c>
-      <c r="X24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="Y24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>195</v>
       </c>
@@ -2928,12 +2936,12 @@
       <c r="R25" t="s">
         <v>93</v>
       </c>
-      <c r="X25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB25"/>
-    </row>
-    <row r="26" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC25"/>
+    </row>
+    <row r="26" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>196</v>
       </c>
@@ -2982,14 +2990,14 @@
       <c r="R26" t="s">
         <v>94</v>
       </c>
-      <c r="X26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="Y26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>197</v>
       </c>
@@ -3038,14 +3046,14 @@
       <c r="R27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="X27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="Y27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>198</v>
       </c>
@@ -3094,14 +3102,14 @@
       <c r="R28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="X28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="Y28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -3150,11 +3158,11 @@
       <c r="R29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="X29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="Y29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>200</v>
       </c>
@@ -3203,14 +3211,14 @@
       <c r="R30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="X30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="X30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>201</v>
       </c>
@@ -3256,11 +3264,11 @@
       <c r="O31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X31" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>202</v>
       </c>
@@ -3306,11 +3314,11 @@
       <c r="O32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X32" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>203</v>
       </c>
@@ -3359,11 +3367,11 @@
       <c r="R33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="X33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>204</v>
       </c>
@@ -3412,11 +3420,11 @@
       <c r="R34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="X34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y34" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>205</v>
       </c>
@@ -3465,11 +3473,11 @@
       <c r="R35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="X35" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y35" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -3515,11 +3523,11 @@
       <c r="O36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>207</v>
       </c>
@@ -3565,11 +3573,11 @@
       <c r="O37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X37" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y37" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>208</v>
       </c>
@@ -3615,11 +3623,11 @@
       <c r="O38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X38" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>209</v>
       </c>
@@ -3665,11 +3673,11 @@
       <c r="O39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X39" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y39" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>210</v>
       </c>
@@ -3715,11 +3723,11 @@
       <c r="O40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X40" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y40" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>211</v>
       </c>
@@ -3765,11 +3773,11 @@
       <c r="O41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X41" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y41" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>212</v>
       </c>
@@ -3815,11 +3823,11 @@
       <c r="O42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X42" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>213</v>
       </c>
@@ -3865,11 +3873,11 @@
       <c r="O43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X43" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>214</v>
       </c>
@@ -3915,11 +3923,11 @@
       <c r="O44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X44" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>215</v>
       </c>
@@ -3965,11 +3973,11 @@
       <c r="O45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X45" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y45" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>216</v>
       </c>
@@ -4018,11 +4026,11 @@
       <c r="R46" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="X46" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y46" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>217</v>
       </c>
@@ -4071,11 +4079,11 @@
       <c r="R47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X47" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y47" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>218</v>
       </c>
@@ -4124,11 +4132,11 @@
       <c r="R48" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X48" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>219</v>
       </c>
@@ -4177,11 +4185,11 @@
       <c r="R49" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X49" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>220</v>
       </c>
@@ -4230,11 +4238,11 @@
       <c r="R50" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X50" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y50" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>221</v>
       </c>
@@ -4283,11 +4291,11 @@
       <c r="R51" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X51" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y51" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>222</v>
       </c>
@@ -4336,11 +4344,11 @@
       <c r="R52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X52" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y52" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>223</v>
       </c>
@@ -4389,11 +4397,11 @@
       <c r="R53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X53" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y53" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>224</v>
       </c>
@@ -4442,11 +4450,11 @@
       <c r="R54" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X54" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y54" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>225</v>
       </c>
@@ -4495,11 +4503,11 @@
       <c r="R55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X55" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>226</v>
       </c>
@@ -4536,11 +4544,11 @@
       <c r="R56" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X56" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y56" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>227</v>
       </c>
@@ -4589,11 +4597,11 @@
       <c r="R57" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X57" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y57" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>228</v>
       </c>
@@ -4642,11 +4650,11 @@
       <c r="R58" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="X58" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y58" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>229</v>
       </c>
@@ -4692,14 +4700,14 @@
       <c r="O59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W59" s="4" t="s">
+      <c r="X59" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="X59" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y59" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>230</v>
       </c>
@@ -4748,11 +4756,11 @@
       <c r="R60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="X60" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y60" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>231</v>
       </c>
@@ -4801,11 +4809,11 @@
       <c r="R61" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="X61" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y61" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>232</v>
       </c>
@@ -4854,11 +4862,11 @@
       <c r="R62" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="X62" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y62" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>233</v>
       </c>
@@ -4907,11 +4915,11 @@
       <c r="R63" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="X63" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y63" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>234</v>
       </c>
@@ -4960,10 +4968,10 @@
       <c r="R64" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="V64" s="4">
+      <c r="W64" s="4">
         <v>1</v>
       </c>
-      <c r="X64" s="4" t="s">
+      <c r="Y64" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
+++ b/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FF9F7-AA1A-084E-A1CF-C1FA0A36EF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8FD4F9-2E6D-004F-AD02-23AE34C14387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19640" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,9 +594,6 @@
     <t>Cama lei</t>
   </si>
   <si>
-    <t>Camassa leichtlinii</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -855,12 +852,6 @@
     <t>Plec con</t>
   </si>
   <si>
-    <t>Rumeace</t>
-  </si>
-  <si>
-    <t>Rumiaceae</t>
-  </si>
-  <si>
     <t>tribe</t>
   </si>
   <si>
@@ -1056,7 +1047,16 @@
     <t>in shade</t>
   </si>
   <si>
-    <t>coodUncM</t>
+    <t>vCoodUncM</t>
+  </si>
+  <si>
+    <t>Rumex</t>
+  </si>
+  <si>
+    <t>Rume ace</t>
+  </si>
+  <si>
+    <t>Camassia leichtlinii</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>58</v>
@@ -1592,7 +1592,7 @@
         <v>32</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>16</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1723,7 +1723,7 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="X3" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>31</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="10" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="11" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>31</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="12" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2202,10 +2202,10 @@
       </c>
       <c r="P12"/>
       <c r="R12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>31</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="13" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2261,10 +2261,10 @@
         <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>31</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="14" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>29</v>
       </c>
       <c r="R14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="4" t="s">
         <v>31</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="15" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2374,7 +2374,7 @@
         <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>31</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="16" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2430,7 +2430,7 @@
         <v>29</v>
       </c>
       <c r="R16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>31</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="17" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>29</v>
       </c>
       <c r="R17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>31</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="18" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2542,7 +2542,7 @@
         <v>29</v>
       </c>
       <c r="R18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>31</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="19" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2598,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="R19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>31</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="20" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>29</v>
       </c>
       <c r="R20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y20" s="4" t="s">
         <v>31</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="21" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2710,7 +2710,7 @@
         <v>29</v>
       </c>
       <c r="R21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>31</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="22" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2766,7 +2766,7 @@
         <v>29</v>
       </c>
       <c r="R22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y22" s="4" t="s">
         <v>31</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="23" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2822,7 +2822,7 @@
         <v>29</v>
       </c>
       <c r="R23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>31</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="24" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2842,13 +2842,13 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" t="s">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>23</v>
@@ -2878,7 +2878,7 @@
         <v>29</v>
       </c>
       <c r="R24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>31</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="25" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>29</v>
       </c>
       <c r="R25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>31</v>
@@ -2943,22 +2943,22 @@
     </row>
     <row r="26" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
       </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>23</v>
@@ -2988,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="R26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>31</v>
@@ -2999,22 +2999,22 @@
     </row>
     <row r="27" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
         <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>23</v>
@@ -3044,7 +3044,7 @@
         <v>29</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>31</v>
@@ -3055,22 +3055,22 @@
     </row>
     <row r="28" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
       </c>
       <c r="E28" t="s">
         <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>23</v>
@@ -3100,7 +3100,7 @@
         <v>29</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>31</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="29" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>29</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>31</v>
@@ -3164,22 +3164,22 @@
     </row>
     <row r="30" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>0</v>
@@ -3209,10 +3209,10 @@
         <v>29</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y30" s="4" t="s">
         <v>31</v>
@@ -3220,22 +3220,22 @@
     </row>
     <row r="31" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>0</v>
@@ -3270,22 +3270,22 @@
     </row>
     <row r="32" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>0</v>
@@ -3320,22 +3320,22 @@
     </row>
     <row r="33" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>23</v>
@@ -3365,7 +3365,7 @@
         <v>29</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y33" s="4" t="s">
         <v>31</v>
@@ -3373,22 +3373,22 @@
     </row>
     <row r="34" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>29</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y34" s="4" t="s">
         <v>31</v>
@@ -3426,26 +3426,26 @@
     </row>
     <row r="35" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="H35" s="4" t="s">
         <v>20</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>29</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y35" s="4" t="s">
         <v>31</v>
@@ -3479,22 +3479,22 @@
     </row>
     <row r="36" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
         <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
       </c>
       <c r="E36" t="s">
         <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>23</v>
@@ -3529,22 +3529,22 @@
     </row>
     <row r="37" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
         <v>119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>120</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>23</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="38" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" t="s">
-        <v>122</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>23</v>
@@ -3629,13 +3629,13 @@
     </row>
     <row r="39" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -3679,22 +3679,22 @@
     </row>
     <row r="40" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
         <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>23</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="41" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3779,22 +3779,22 @@
     </row>
     <row r="42" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
         <v>126</v>
-      </c>
-      <c r="D42" t="s">
-        <v>127</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>23</v>
@@ -3829,22 +3829,22 @@
     </row>
     <row r="43" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
         <v>129</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
       </c>
       <c r="E43" t="s">
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>23</v>
@@ -3879,22 +3879,22 @@
     </row>
     <row r="44" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
         <v>131</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>23</v>
@@ -3929,13 +3929,13 @@
     </row>
     <row r="45" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
         <v>37</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="46" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -4024,7 +4024,7 @@
         <v>29</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y46" s="4" t="s">
         <v>31</v>
@@ -4032,22 +4032,22 @@
     </row>
     <row r="47" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>29</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y47" s="4" t="s">
         <v>31</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="48" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>136</v>
       </c>
       <c r="E48" t="s">
         <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>23</v>
@@ -4130,7 +4130,7 @@
         <v>29</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y48" s="4" t="s">
         <v>31</v>
@@ -4138,22 +4138,22 @@
     </row>
     <row r="49" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
         <v>137</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
       </c>
       <c r="E49" t="s">
         <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>23</v>
@@ -4183,7 +4183,7 @@
         <v>29</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y49" s="4" t="s">
         <v>31</v>
@@ -4191,22 +4191,22 @@
     </row>
     <row r="50" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
         <v>140</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>23</v>
@@ -4236,7 +4236,7 @@
         <v>29</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y50" s="4" t="s">
         <v>31</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="51" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -4289,7 +4289,7 @@
         <v>29</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y51" s="4" t="s">
         <v>31</v>
@@ -4297,22 +4297,22 @@
     </row>
     <row r="52" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" t="s">
         <v>142</v>
-      </c>
-      <c r="D52" t="s">
-        <v>143</v>
       </c>
       <c r="E52" t="s">
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>23</v>
@@ -4342,7 +4342,7 @@
         <v>29</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y52" s="4" t="s">
         <v>31</v>
@@ -4350,22 +4350,22 @@
     </row>
     <row r="53" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
         <v>144</v>
-      </c>
-      <c r="D53" t="s">
-        <v>145</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>23</v>
@@ -4395,7 +4395,7 @@
         <v>29</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y53" s="4" t="s">
         <v>31</v>
@@ -4403,19 +4403,19 @@
     </row>
     <row r="54" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
         <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F54" t="s">
         <v>78</v>
@@ -4448,7 +4448,7 @@
         <v>29</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y54" s="4" t="s">
         <v>31</v>
@@ -4456,13 +4456,13 @@
     </row>
     <row r="55" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -4501,7 +4501,7 @@
         <v>29</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y55" s="4" t="s">
         <v>31</v>
@@ -4509,13 +4509,13 @@
     </row>
     <row r="56" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -4542,7 +4542,7 @@
         <v>29</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y56" s="4" t="s">
         <v>31</v>
@@ -4550,22 +4550,22 @@
     </row>
     <row r="57" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
         <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>130</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>23</v>
@@ -4595,7 +4595,7 @@
         <v>29</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y57" s="4" t="s">
         <v>31</v>
@@ -4603,22 +4603,22 @@
     </row>
     <row r="58" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
         <v>148</v>
-      </c>
-      <c r="D58" t="s">
-        <v>149</v>
       </c>
       <c r="E58" t="s">
         <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>23</v>
@@ -4648,7 +4648,7 @@
         <v>29</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y58" s="4" t="s">
         <v>31</v>
@@ -4656,22 +4656,22 @@
     </row>
     <row r="59" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" t="s">
         <v>151</v>
-      </c>
-      <c r="D59" t="s">
-        <v>152</v>
       </c>
       <c r="E59" t="s">
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>23</v>
@@ -4701,7 +4701,7 @@
         <v>29</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y59" s="4" t="s">
         <v>31</v>
@@ -4709,22 +4709,22 @@
     </row>
     <row r="60" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
         <v>162</v>
-      </c>
-      <c r="D60" t="s">
-        <v>163</v>
       </c>
       <c r="E60" t="s">
         <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>23</v>
@@ -4754,7 +4754,7 @@
         <v>29</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y60" s="4" t="s">
         <v>31</v>
@@ -4762,22 +4762,22 @@
     </row>
     <row r="61" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
         <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>155</v>
       </c>
       <c r="E61" t="s">
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>23</v>
@@ -4807,7 +4807,7 @@
         <v>29</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y61" s="4" t="s">
         <v>31</v>
@@ -4815,22 +4815,22 @@
     </row>
     <row r="62" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>23</v>
@@ -4860,7 +4860,7 @@
         <v>29</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y62" s="4" t="s">
         <v>31</v>
@@ -4868,22 +4868,22 @@
     </row>
     <row r="63" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>23</v>
@@ -4913,7 +4913,7 @@
         <v>29</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y63" s="4" t="s">
         <v>31</v>
@@ -4921,25 +4921,25 @@
     </row>
     <row r="64" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>20</v>
@@ -4966,7 +4966,7 @@
         <v>29</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W64" s="4">
         <v>1</v>

--- a/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
+++ b/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8FD4F9-2E6D-004F-AD02-23AE34C14387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE000EC-1EBA-CE4B-843A-2974CDDE977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="2520" yWindow="1900" windowWidth="28140" windowHeight="16880" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="183">
   <si>
     <t>genus</t>
   </si>
@@ -369,24 +369,12 @@
     <t>dataEntryRemarks</t>
   </si>
   <si>
-    <t>occID</t>
-  </si>
-  <si>
     <t>occStatus</t>
   </si>
   <si>
     <t>sciName</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>StateProvince</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>vElevm</t>
   </si>
   <si>
@@ -618,9 +606,6 @@
     <t>Umbilica/ Democaroa</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
     <t>seep</t>
   </si>
   <si>
@@ -855,195 +840,6 @@
     <t>tribe</t>
   </si>
   <si>
-    <t>HJ-27-1</t>
-  </si>
-  <si>
-    <t>HJ-27-2</t>
-  </si>
-  <si>
-    <t>HJ-27-4</t>
-  </si>
-  <si>
-    <t>HJ-27-5</t>
-  </si>
-  <si>
-    <t>HJ-27-6</t>
-  </si>
-  <si>
-    <t>HJ-27-7</t>
-  </si>
-  <si>
-    <t>HJ-27-8</t>
-  </si>
-  <si>
-    <t>HJ-27-9</t>
-  </si>
-  <si>
-    <t>HJ-27-10</t>
-  </si>
-  <si>
-    <t>HJ-27-11</t>
-  </si>
-  <si>
-    <t>HJ-27-12</t>
-  </si>
-  <si>
-    <t>HJ-27-13</t>
-  </si>
-  <si>
-    <t>HJ-27-14</t>
-  </si>
-  <si>
-    <t>HJ-27-15</t>
-  </si>
-  <si>
-    <t>HJ-27-16</t>
-  </si>
-  <si>
-    <t>HJ-27-17</t>
-  </si>
-  <si>
-    <t>HJ-27-18</t>
-  </si>
-  <si>
-    <t>HJ-27-19</t>
-  </si>
-  <si>
-    <t>HJ-27-20</t>
-  </si>
-  <si>
-    <t>HJ-27-21</t>
-  </si>
-  <si>
-    <t>HJ-27-22</t>
-  </si>
-  <si>
-    <t>HJ-27-23</t>
-  </si>
-  <si>
-    <t>HJ-27-24</t>
-  </si>
-  <si>
-    <t>HJ-27-25</t>
-  </si>
-  <si>
-    <t>HJ-27-26</t>
-  </si>
-  <si>
-    <t>HJ-27-27</t>
-  </si>
-  <si>
-    <t>HJ-27-28</t>
-  </si>
-  <si>
-    <t>HJ-27-29</t>
-  </si>
-  <si>
-    <t>HJ-27-30</t>
-  </si>
-  <si>
-    <t>HJ-27-31</t>
-  </si>
-  <si>
-    <t>HJ-27-32</t>
-  </si>
-  <si>
-    <t>HJ-27-33</t>
-  </si>
-  <si>
-    <t>HJ-27-34</t>
-  </si>
-  <si>
-    <t>HJ-27-35</t>
-  </si>
-  <si>
-    <t>HJ-27-36</t>
-  </si>
-  <si>
-    <t>HJ-27-37</t>
-  </si>
-  <si>
-    <t>HJ-27-38</t>
-  </si>
-  <si>
-    <t>HJ-27-39</t>
-  </si>
-  <si>
-    <t>HJ-27-40</t>
-  </si>
-  <si>
-    <t>HJ-27-41</t>
-  </si>
-  <si>
-    <t>HJ-27-42</t>
-  </si>
-  <si>
-    <t>HJ-27-43</t>
-  </si>
-  <si>
-    <t>HJ-27-44</t>
-  </si>
-  <si>
-    <t>HJ-27-45</t>
-  </si>
-  <si>
-    <t>HJ-27-46</t>
-  </si>
-  <si>
-    <t>HJ-27-47</t>
-  </si>
-  <si>
-    <t>HJ-27-48</t>
-  </si>
-  <si>
-    <t>HJ-27-49</t>
-  </si>
-  <si>
-    <t>HJ-27-50</t>
-  </si>
-  <si>
-    <t>HJ-27-51</t>
-  </si>
-  <si>
-    <t>HJ-27-52</t>
-  </si>
-  <si>
-    <t>HJ-27-53</t>
-  </si>
-  <si>
-    <t>HJ-27-54</t>
-  </si>
-  <si>
-    <t>HJ-27-55</t>
-  </si>
-  <si>
-    <t>HJ-27-56</t>
-  </si>
-  <si>
-    <t>HJ-27-57</t>
-  </si>
-  <si>
-    <t>HJ-27-58</t>
-  </si>
-  <si>
-    <t>HJ-27-59</t>
-  </si>
-  <si>
-    <t>HJ-27-60</t>
-  </si>
-  <si>
-    <t>HJ-27-61</t>
-  </si>
-  <si>
-    <t>HJ-27-62</t>
-  </si>
-  <si>
-    <t>HJ-27-63</t>
-  </si>
-  <si>
-    <t>HJ-27-64</t>
-  </si>
-  <si>
     <t>in shade</t>
   </si>
   <si>
@@ -1057,13 +853,55 @@
   </si>
   <si>
     <t>Camassia leichtlinii</t>
+  </si>
+  <si>
+    <t>Sat doug</t>
+  </si>
+  <si>
+    <t>Satureja douglasii</t>
+  </si>
+  <si>
+    <t>Clinopodium douglasii</t>
+  </si>
+  <si>
+    <t>shade</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>stateProvince</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>10U 417840 5482520</t>
+  </si>
+  <si>
+    <t>10U 486540 5404510</t>
+  </si>
+  <si>
+    <t>archiveID</t>
+  </si>
+  <si>
+    <t>HJ-27</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>numPage</t>
+  </si>
+  <si>
+    <t>Clarkia amoena Torilis japonica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1111,6 +949,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1160,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1174,6 +1018,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,3490 +1335,3759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="4"/>
-    <col min="9" max="9" width="14.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="21.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="4"/>
-    <col min="16" max="16" width="22.1640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="4" customWidth="1"/>
-    <col min="21" max="22" width="11.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="16.5" style="4" customWidth="1"/>
-    <col min="24" max="24" width="13" style="4" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="4"/>
-    <col min="27" max="27" width="22.83203125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="16.5" style="4" customWidth="1"/>
-    <col min="29" max="29" width="70.6640625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="2" width="10.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="14.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="4"/>
+    <col min="17" max="17" width="22.1640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="4" customWidth="1"/>
+    <col min="25" max="25" width="13" style="4" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="4"/>
+    <col min="28" max="28" width="14.33203125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="28.5" style="4" customWidth="1"/>
+    <col min="30" max="30" width="70.6640625" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="X2" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2"/>
       <c r="Y2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="AC2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="X3" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W3"/>
       <c r="Y3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>48</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>56</v>
+      <c r="C8">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC8"/>
-    </row>
-    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>61</v>
+      <c r="C9">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>63</v>
+      <c r="C10">
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>66</v>
+      <c r="C11">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>68</v>
+      <c r="C12">
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12"/>
-      <c r="R12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12"/>
+      <c r="S12" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>71</v>
+      <c r="C13">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4">
+        <v>20040212</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4">
-        <v>20040212</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC13"/>
-    </row>
-    <row r="14" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13"/>
+    </row>
+    <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>74</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4">
+        <v>20040312</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>68</v>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4">
+        <v>20040312</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
+      <c r="C16">
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4">
+        <v>20040312</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>76</v>
+      <c r="C17">
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4">
+        <v>20040312</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>79</v>
+      <c r="C18">
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4">
+        <v>20040312</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
+      <c r="C19">
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4">
+        <v>20040312</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>61</v>
+      <c r="C20">
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4">
+        <v>20040312</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>66</v>
+      <c r="C21">
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4">
+        <v>20040312</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>74</v>
+      <c r="C22">
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4">
+        <v>20040312</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>54</v>
+      <c r="C23">
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4">
+        <v>20040312</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>81</v>
+      <c r="C24">
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4">
+        <v>20040312</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>97</v>
+      <c r="C25">
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>29</v>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4">
+        <v>20040312</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC25"/>
-    </row>
-    <row r="26" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25"/>
+    </row>
+    <row r="26" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>83</v>
+      <c r="C26">
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="4">
+        <v>20040312</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>85</v>
+      <c r="C27">
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
+        <v>169</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4">
+        <v>20040312</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27"/>
       <c r="Y27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27"/>
+    </row>
+    <row r="28" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>87</v>
+      <c r="C28">
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4">
+        <v>20040312</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>99</v>
+      <c r="C29">
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="4">
+        <v>20040312</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>89</v>
+      <c r="C30">
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>29</v>
+      <c r="I30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="4">
+        <v>20040312</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="Y31" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>103</v>
+      <c r="C32">
+        <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>29</v>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="4">
+        <v>20040312</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>105</v>
+      <c r="C33">
+        <v>20</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="4">
+        <v>20040312</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>110</v>
+      <c r="C34">
+        <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>29</v>
+      <c r="I35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="4">
+        <v>20040312</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="4">
+        <v>20040312</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
-        <v>118</v>
+      <c r="C37">
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="4">
+        <v>20040312</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y37" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
-        <v>120</v>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>114</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="4">
+        <v>20040312</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>122</v>
+      <c r="C39">
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>116</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="4">
+        <v>20040312</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
-        <v>123</v>
+      <c r="C40">
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="4">
+        <v>20040312</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>48</v>
+      <c r="C41">
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>119</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="4">
+        <v>20040312</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
-        <v>125</v>
+      <c r="C42">
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="4">
+        <v>20040312</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
-        <v>128</v>
+      <c r="C43">
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>122</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="4">
+        <v>20040312</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
-        <v>130</v>
+      <c r="C44">
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>124</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="4">
+        <v>20040312</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y44" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
-        <v>132</v>
+      <c r="C45">
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="4">
+        <v>20040312</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
-        <v>54</v>
+      <c r="C46">
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="4">
+        <v>20040312</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>155</v>
+      <c r="C47">
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>51</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="4">
+        <v>20040312</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
-        <v>134</v>
+      <c r="C48">
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>128</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="4">
+        <v>20040312</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
-        <v>136</v>
+      <c r="C49">
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>130</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="4">
+        <v>20040312</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y49" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
-        <v>139</v>
+      <c r="C50">
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="4">
+        <v>20040312</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y50" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
-        <v>68</v>
+      <c r="C51">
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>135</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="4">
+        <v>20040312</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z51" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" t="s">
-        <v>141</v>
+      <c r="C52">
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="4">
+        <v>20040312</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y52" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
-        <v>143</v>
+      <c r="C53">
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>137</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="4">
+        <v>20040312</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
-        <v>145</v>
+      <c r="C54">
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>139</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="4">
+        <v>20040312</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y54" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
-        <v>122</v>
+      <c r="C55">
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="4">
+        <v>20040312</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y55" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z55" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="I56" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>29</v>
+      <c r="C56">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="4">
+        <v>20040312</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y56" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
-        <v>128</v>
+      <c r="C57">
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" t="s">
-        <v>129</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>29</v>
+        <v>141</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="J57" s="4">
+        <v>20040312</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z57" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
-        <v>147</v>
+      <c r="C58">
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>124</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="4">
+        <v>20040312</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y58" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
-        <v>150</v>
+      <c r="C59">
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>144</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="4">
+        <v>20040312</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X59" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y59" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" t="s">
-        <v>161</v>
+      <c r="C60">
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>147</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="4">
+        <v>20040312</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>160</v>
+        <v>24</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="Y60" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
-        <v>153</v>
+      <c r="C61">
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>157</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="4">
+        <v>20040312</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y61" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z61" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B62" s="4">
+        <v>179</v>
+      </c>
+      <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>23</v>
+      <c r="C62">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>149</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="4">
+        <v>20040312</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y62" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z62" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>167</v>
+      <c r="C63">
+        <v>28</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="4">
+        <v>20040312</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y63" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z63" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>235</v>
+      <c r="C64">
+        <v>29</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="4">
+        <v>20040312</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z64" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="W64" s="4">
+      <c r="I65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="X65" s="4">
         <v>1</v>
       </c>
-      <c r="Y64" s="4" t="s">
-        <v>31</v>
+      <c r="Z65" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
+++ b/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE000EC-1EBA-CE4B-843A-2974CDDE977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBF635-6525-1A44-A87A-F919EEE70CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1900" windowWidth="28140" windowHeight="16880" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="254">
   <si>
     <t>genus</t>
   </si>
@@ -771,9 +771,6 @@
     <t>Mimul gut</t>
   </si>
   <si>
-    <t>ortar gramino</t>
-  </si>
-  <si>
     <t>Orob uni</t>
   </si>
   <si>
@@ -895,13 +892,229 @@
   </si>
   <si>
     <t>Clarkia amoena Torilis japonica</t>
+  </si>
+  <si>
+    <t>HJ-8</t>
+  </si>
+  <si>
+    <t>Elodea densa</t>
+  </si>
+  <si>
+    <t>Egeria densa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species </t>
+  </si>
+  <si>
+    <t>Metchosin</t>
+  </si>
+  <si>
+    <t>Vancouver Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoreline of lake </t>
+  </si>
+  <si>
+    <t>south shore of Matheson Lake, Metchosin</t>
+  </si>
+  <si>
+    <t>Potamogeton richardsonii</t>
+  </si>
+  <si>
+    <t>P praelongus</t>
+  </si>
+  <si>
+    <t>Potamogeton praelongus</t>
+  </si>
+  <si>
+    <t>Carex excissata</t>
+  </si>
+  <si>
+    <t>Carex exsiccata</t>
+  </si>
+  <si>
+    <t>C. obnupta</t>
+  </si>
+  <si>
+    <t>Carex obnupta</t>
+  </si>
+  <si>
+    <t>Agrostis gigatea</t>
+  </si>
+  <si>
+    <t>Agrostis gigantea</t>
+  </si>
+  <si>
+    <t>Calieagon gig</t>
+  </si>
+  <si>
+    <t>Nuphar polysepala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penninsula middle of south site, Matheson Lake, Metchosin </t>
+  </si>
+  <si>
+    <t>Spiraea douglassii</t>
+  </si>
+  <si>
+    <t>Salix lasiadra</t>
+  </si>
+  <si>
+    <t>Salix lasiandra</t>
+  </si>
+  <si>
+    <t>Sparganium emersum</t>
+  </si>
+  <si>
+    <t>Lemna minor</t>
+  </si>
+  <si>
+    <t>Typha latifolia</t>
+  </si>
+  <si>
+    <t>Myriopphyllum spicatum</t>
+  </si>
+  <si>
+    <t>west end of Matheson Lake, Metchosin</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Rubus spectabilis</t>
+  </si>
+  <si>
+    <t>Lycopus uniflorus</t>
+  </si>
+  <si>
+    <t>Veronica americana</t>
+  </si>
+  <si>
+    <t>Aster subspicatum</t>
+  </si>
+  <si>
+    <t>Symphyotricum subspicatum</t>
+  </si>
+  <si>
+    <t>north side of Matheson Lake, Metchosin</t>
+  </si>
+  <si>
+    <t>Carex lasiocarpa</t>
+  </si>
+  <si>
+    <t>Scirpus acutus</t>
+  </si>
+  <si>
+    <t>two large beds</t>
+  </si>
+  <si>
+    <t>Potamogeton robbinsii</t>
+  </si>
+  <si>
+    <t>Potamogeton amplifolius</t>
+  </si>
+  <si>
+    <t>Isoetes echinospora</t>
+  </si>
+  <si>
+    <t>behind Scirpus beds</t>
+  </si>
+  <si>
+    <t>Eleocharis palustris</t>
+  </si>
+  <si>
+    <t>Utricularia vulgaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on log, shoreline of lake </t>
+  </si>
+  <si>
+    <t>Carex cusickii</t>
+  </si>
+  <si>
+    <t>Potentilla palustris</t>
+  </si>
+  <si>
+    <t>Comarum palustre</t>
+  </si>
+  <si>
+    <t>Potamogeton natans</t>
+  </si>
+  <si>
+    <t>Drosera rotundifolia</t>
+  </si>
+  <si>
+    <t>Blinkhorn Lake, Metchosin</t>
+  </si>
+  <si>
+    <t>approx 30% lake cover with Nuphar polysepala</t>
+  </si>
+  <si>
+    <t>Nymphae odorata</t>
+  </si>
+  <si>
+    <t>Nymphae sp. odorata</t>
+  </si>
+  <si>
+    <t>approx 30% lake cover with Nymphae odorata</t>
+  </si>
+  <si>
+    <t>aquatic in lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edges of lake </t>
+  </si>
+  <si>
+    <t>Schoenoplectus acutus</t>
+  </si>
+  <si>
+    <t>Spiraea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix </t>
+  </si>
+  <si>
+    <t>Alder</t>
+  </si>
+  <si>
+    <t>Alnus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h </t>
+  </si>
+  <si>
+    <t>Agrostis scabra</t>
+  </si>
+  <si>
+    <t>Sphagnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Sphagnum mats in lake </t>
+  </si>
+  <si>
+    <t>Saltspring Island</t>
+  </si>
+  <si>
+    <t>in lake</t>
+  </si>
+  <si>
+    <t>6 km lake, Saltspring Island</t>
+  </si>
+  <si>
+    <t>mostly open water in lake with Sphagnum mats</t>
+  </si>
+  <si>
+    <t>Carex oederi</t>
+  </si>
+  <si>
+    <t>Carex interior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -955,6 +1168,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1019,7 +1239,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,10 +1557,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AD110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1581,7 @@
     <col min="13" max="13" width="16.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" style="4" customWidth="1"/>
     <col min="15" max="15" width="21.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="4"/>
+    <col min="16" max="16" width="13.33203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="22.1640625" style="4" customWidth="1"/>
     <col min="18" max="18" width="8.5" style="4" customWidth="1"/>
     <col min="19" max="19" width="16.83203125" style="4" customWidth="1"/>
@@ -1370,20 +1594,20 @@
     <col min="26" max="26" width="14.6640625" style="4" customWidth="1"/>
     <col min="27" max="27" width="10.83203125" style="4"/>
     <col min="28" max="28" width="14.33203125" style="4" customWidth="1"/>
-    <col min="29" max="29" width="28.5" style="4" customWidth="1"/>
+    <col min="29" max="29" width="23.6640625" style="4" customWidth="1"/>
     <col min="30" max="30" width="70.6640625" style="4" customWidth="1"/>
     <col min="31" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>54</v>
@@ -1410,13 +1634,13 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>2</v>
@@ -1443,7 +1667,7 @@
         <v>28</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -1469,7 +1693,7 @@
     </row>
     <row r="2" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1517,7 +1741,7 @@
         <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W2"/>
       <c r="Y2" s="4" t="s">
@@ -1527,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="AC2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD2" t="s">
         <v>37</v>
@@ -1535,7 +1759,7 @@
     </row>
     <row r="3" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1583,11 +1807,11 @@
         <v>25</v>
       </c>
       <c r="V3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W3"/>
       <c r="Y3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>27</v>
@@ -1598,7 +1822,7 @@
     </row>
     <row r="4" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1651,7 +1875,7 @@
     </row>
     <row r="5" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1699,7 +1923,7 @@
         <v>25</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>27</v>
@@ -1710,7 +1934,7 @@
     </row>
     <row r="6" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1758,7 +1982,7 @@
         <v>25</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>27</v>
@@ -1769,7 +1993,7 @@
     </row>
     <row r="7" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1825,7 +2049,7 @@
     </row>
     <row r="8" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1873,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>27</v>
@@ -1882,7 +2106,7 @@
     </row>
     <row r="9" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1938,7 +2162,7 @@
     </row>
     <row r="10" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1986,7 +2210,7 @@
         <v>25</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>27</v>
@@ -1997,7 +2221,7 @@
     </row>
     <row r="11" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2056,7 +2280,7 @@
     </row>
     <row r="12" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2119,7 +2343,7 @@
     </row>
     <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2179,7 +2403,7 @@
     </row>
     <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2238,7 +2462,7 @@
     </row>
     <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2297,7 +2521,7 @@
     </row>
     <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2356,7 +2580,7 @@
     </row>
     <row r="17" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2415,7 +2639,7 @@
     </row>
     <row r="18" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2474,7 +2698,7 @@
     </row>
     <row r="19" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2533,7 +2757,7 @@
     </row>
     <row r="20" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2592,7 +2816,7 @@
     </row>
     <row r="21" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2651,7 +2875,7 @@
     </row>
     <row r="22" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2710,7 +2934,7 @@
     </row>
     <row r="23" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2769,7 +2993,7 @@
     </row>
     <row r="24" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2781,13 +3005,13 @@
         <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
         <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>19</v>
@@ -2828,7 +3052,7 @@
     </row>
     <row r="25" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2885,7 +3109,7 @@
     </row>
     <row r="26" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2944,7 +3168,7 @@
     </row>
     <row r="27" spans="1:30" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2953,14 +3177,14 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27"/>
+      <c r="G27" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>19</v>
@@ -2991,7 +3215,7 @@
       </c>
       <c r="S27"/>
       <c r="Y27" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>27</v>
@@ -3000,7 +3224,7 @@
     </row>
     <row r="28" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3059,7 +3283,7 @@
     </row>
     <row r="29" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3118,7 +3342,7 @@
     </row>
     <row r="30" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3174,7 +3398,7 @@
     </row>
     <row r="31" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3233,7 +3457,7 @@
     </row>
     <row r="32" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3286,7 +3510,7 @@
     </row>
     <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3339,7 +3563,7 @@
     </row>
     <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3395,7 +3619,7 @@
     </row>
     <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3451,7 +3675,7 @@
     </row>
     <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -3507,7 +3731,7 @@
     </row>
     <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -3560,7 +3784,7 @@
     </row>
     <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -3613,7 +3837,7 @@
     </row>
     <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3666,7 +3890,7 @@
     </row>
     <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -3719,7 +3943,7 @@
     </row>
     <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3772,7 +3996,7 @@
     </row>
     <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3825,7 +4049,7 @@
     </row>
     <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3878,7 +4102,7 @@
     </row>
     <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3931,7 +4155,7 @@
     </row>
     <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -3984,7 +4208,7 @@
     </row>
     <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -4037,7 +4261,7 @@
     </row>
     <row r="47" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -4085,7 +4309,7 @@
         <v>25</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z47" s="4" t="s">
         <v>27</v>
@@ -4093,7 +4317,7 @@
     </row>
     <row r="48" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4102,7 +4326,7 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
         <v>128</v>
@@ -4141,7 +4365,7 @@
         <v>25</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z48" s="4" t="s">
         <v>27</v>
@@ -4149,7 +4373,7 @@
     </row>
     <row r="49" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -4197,7 +4421,7 @@
         <v>25</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z49" s="4" t="s">
         <v>27</v>
@@ -4205,7 +4429,7 @@
     </row>
     <row r="50" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -4253,7 +4477,7 @@
         <v>25</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z50" s="4" t="s">
         <v>27</v>
@@ -4261,7 +4485,7 @@
     </row>
     <row r="51" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -4309,7 +4533,7 @@
         <v>25</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z51" s="4" t="s">
         <v>27</v>
@@ -4317,7 +4541,7 @@
     </row>
     <row r="52" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -4365,7 +4589,7 @@
         <v>25</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z52" s="4" t="s">
         <v>27</v>
@@ -4373,7 +4597,7 @@
     </row>
     <row r="53" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4421,7 +4645,7 @@
         <v>25</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z53" s="4" t="s">
         <v>27</v>
@@ -4429,7 +4653,7 @@
     </row>
     <row r="54" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -4477,7 +4701,7 @@
         <v>25</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z54" s="4" t="s">
         <v>27</v>
@@ -4485,7 +4709,7 @@
     </row>
     <row r="55" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -4533,7 +4757,7 @@
         <v>25</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z55" s="4" t="s">
         <v>27</v>
@@ -4541,7 +4765,7 @@
     </row>
     <row r="56" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -4589,7 +4813,7 @@
         <v>25</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z56" s="4" t="s">
         <v>27</v>
@@ -4597,20 +4821,32 @@
     </row>
     <row r="57" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
+        <v>123</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J57" s="4">
         <v>20040312</v>
       </c>
@@ -4633,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z57" s="4" t="s">
         <v>27</v>
@@ -4641,25 +4877,25 @@
     </row>
     <row r="58" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>19</v>
@@ -4697,25 +4933,25 @@
     </row>
     <row r="59" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>19</v>
@@ -4744,7 +4980,7 @@
       <c r="P59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S59" s="4" t="s">
+      <c r="Y59" s="4" t="s">
         <v>153</v>
       </c>
       <c r="Z59" s="4" t="s">
@@ -4753,25 +4989,25 @@
     </row>
     <row r="60" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>19</v>
@@ -4800,7 +5036,7 @@
       <c r="P60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>154</v>
       </c>
       <c r="Z60" s="4" t="s">
@@ -4809,25 +5045,25 @@
     </row>
     <row r="61" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>19</v>
@@ -4857,33 +5093,33 @@
         <v>25</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z61" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62">
+        <v>178</v>
+      </c>
+      <c r="B62" s="4">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>27</v>
-      </c>
-      <c r="D62" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>149</v>
+        <v>28</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>19</v>
@@ -4913,7 +5149,7 @@
         <v>25</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z62" s="4" t="s">
         <v>27</v>
@@ -4921,22 +5157,22 @@
     </row>
     <row r="63" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>160</v>
@@ -4969,7 +5205,7 @@
         <v>25</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z63" s="4" t="s">
         <v>27</v>
@@ -4977,28 +5213,28 @@
     </row>
     <row r="64" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>16</v>
@@ -5025,68 +5261,2510 @@
         <v>25</v>
       </c>
       <c r="S64" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="X64" s="4">
+        <v>1</v>
       </c>
       <c r="Z64" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC65" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC66" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="D67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC67" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC68" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>6</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>7</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC71" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4">
+        <v>8</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC72" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z73" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>10</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z74" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="4">
-        <v>20040312</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S65" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="X65" s="4">
+      <c r="G75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z75" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="4">
         <v>1</v>
       </c>
-      <c r="Z65" s="4" t="s">
+      <c r="C76" s="4">
+        <v>12</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z76" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>13</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z77" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>14</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z78" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>15</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z79" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>16</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y80" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z80" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4">
+        <v>17</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z81" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4">
+        <v>18</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y82" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z82" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>19</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z83" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y84" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z84" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="4">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC85" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC86" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z87" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="4">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4">
+        <v>5</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z88" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="4">
+        <v>2</v>
+      </c>
+      <c r="C89" s="4">
+        <v>6</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z89" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4">
+        <v>7</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z90" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4">
+        <v>8</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z91" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2</v>
+      </c>
+      <c r="C92" s="4">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z92" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4">
+        <v>10</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y93" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z93" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y94" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z94" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="4">
+        <v>2</v>
+      </c>
+      <c r="C95" s="4">
+        <v>12</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z95" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="4">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4">
+        <v>13</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z96" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4">
+        <v>14</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z97" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2</v>
+      </c>
+      <c r="C98" s="4">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z98" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="4">
+        <v>3</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z99" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z100" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" s="4">
+        <v>3</v>
+      </c>
+      <c r="C101" s="4">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z101" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" s="4">
+        <v>3</v>
+      </c>
+      <c r="C102" s="4">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z102" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="4">
+        <v>3</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z103" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="4">
+        <v>3</v>
+      </c>
+      <c r="C104" s="4">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z104" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="4">
+        <v>3</v>
+      </c>
+      <c r="C105" s="4">
+        <v>7</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z105" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="4">
+        <v>3</v>
+      </c>
+      <c r="C106" s="4">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z106" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" s="4">
+        <v>3</v>
+      </c>
+      <c r="C107" s="4">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="4">
+        <v>19960925</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z107" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3</v>
+      </c>
+      <c r="C108" s="4">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y108" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z108" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="4">
+        <v>3</v>
+      </c>
+      <c r="C109" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="X109" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z109" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="4">
+        <v>3</v>
+      </c>
+      <c r="C110" s="4">
+        <v>12</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="X110" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
+++ b/data/digitized_data/HJ-occ-entry-template_22-11-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C0A4A-524A-0F4D-A543-4AF2D49D8EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5769BA78-26FA-D549-8EEA-BF75ADB6D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="pageNum" comment="page number of field journal (each side of a page as a new number so the front and back of the first page would be 1, and 2 respectively">Sheet1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1800,7 +1800,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> verbatim latitude. The geographic latitude (in decimal degrees. Use an online conversion tool to convert to decimal degrees if given in dms. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
+          <t xml:space="preserve"> verbatim latitude. The geographic latitude in decimal degrees or degrees minutes seconds. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
 </t>
         </r>
         <r>
@@ -1830,7 +1830,17 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> "-41.0983423".</t>
+          <t xml:space="preserve"> "-41.0983423". If degrees minutes seconds: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>49 39 12</t>
         </r>
       </text>
     </comment>
@@ -1885,7 +1895,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">verbatim longitude. The geographic longitude (in decimal degrees). Use an online conversion tool to convert to decimal degrees if given in dms. </t>
+          <t xml:space="preserve">verbatim longitude. The geographic longitude in decimal degrees or degrees minutes seconds. </t>
         </r>
         <r>
           <rPr>
@@ -1924,11 +1934,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> "-121.1761111".</t>
+          <t xml:space="preserve"> "-121.1761111". If in degrees minutes secons: 124 56 37</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{1078DE31-624A-5041-BBC4-A11C2FA8CC5D}">
+    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
       <text>
         <r>
           <rPr>
@@ -1938,7 +1948,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">degreeSystem
+          <t xml:space="preserve">vUTM
 </t>
         </r>
         <r>
@@ -1968,11 +1978,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>denote if the degrees were verbatim in degrees, minutes, seconds or decimal degrees. If you had to convert to decimal degrees, what tool did you use?</t>
+          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10U 45689 55678</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
+    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
       <text>
         <r>
           <rPr>
@@ -1982,11 +2022,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vUTM
+          <t xml:space="preserve">vCoordUncertainty
 </t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2012,7 +2053,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
+          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
 </t>
         </r>
         <r>
@@ -2042,21 +2083,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>10U 45689 55678</t>
+          <t xml:space="preserve">30 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vCoordUncertainty
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RECOMMENDED
 </t>
         </r>
         <r>
@@ -2064,7 +2105,7 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -2075,26 +2116,26 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> The number of individuals represented present at the time of the Occurrence.
 </t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -2105,41 +2146,40 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">30 </t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "1", "25".</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{02C4E6F9-C680-9A4E-8FE6-5FE3D6B276B0}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">occRemarks
 </t>
         </r>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -2150,26 +2190,26 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> The number of individuals represented present at the time of the Occurrence.
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Remarks about the occurrence that do not fit into other columns. 
 </t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -2180,7 +2220,7 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Examples: </t>
@@ -2189,14 +2229,14 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "1", "25".</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"abundant", "prevalent" , "no unusual travel off" "dominant" "very few" "add", "two large beds", "approx 30% cover"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="1" shapeId="0" xr:uid="{02C4E6F9-C680-9A4E-8FE6-5FE3D6B276B0}">
+    <comment ref="AC1" authorId="1" shapeId="0" xr:uid="{1A1EB019-907B-974F-B8A9-28760AC102E7}">
       <text>
         <r>
           <rPr>
@@ -2206,11 +2246,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">occRemarks
+          <t xml:space="preserve">recordedBy
 </t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2236,7 +2277,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Remarks about the occurrence that do not fit into other columns. 
+          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
 </t>
         </r>
         <r>
@@ -2266,11 +2307,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"abundant", "prevalent" , "no unusual travel off" "dominant" "very few" "add", "two large beds", "approx 30% cover"</t>
+          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{1A1EB019-907B-974F-B8A9-28760AC102E7}">
+    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{44ACD083-7A9B-E146-B264-32980E3FE423}">
       <text>
         <r>
           <rPr>
@@ -2280,7 +2321,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">recordedBy
+          <t xml:space="preserve">idBy
 </t>
         </r>
         <r>
@@ -2311,7 +2352,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
+          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
 </t>
         </r>
         <r>
@@ -2332,20 +2387,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{44ACD083-7A9B-E146-B264-32980E3FE423}">
+    <comment ref="AF1" authorId="1" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
       <text>
         <r>
           <rPr>
@@ -2355,7 +2440,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">idBy
+          <t xml:space="preserve">assTaxa
 </t>
         </r>
         <r>
@@ -2377,6 +2462,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Definition: </t>
         </r>
         <r>
@@ -2386,171 +2482,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
+          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Isoetes echinospora</t>
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="1" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"HJC-2863"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="1" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assTaxa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Isoetes echinospora</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH1" authorId="1" shapeId="0" xr:uid="{C09B578E-7BE1-1A44-890C-B5193E01F5A0}">
+    <comment ref="AG1" authorId="1" shapeId="0" xr:uid="{C09B578E-7BE1-1A44-890C-B5193E01F5A0}">
       <text>
         <r>
           <rPr>
@@ -2641,7 +2607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="377">
   <si>
     <t>genus</t>
   </si>
@@ -3348,9 +3314,6 @@
     <t>Saltspring Island</t>
   </si>
   <si>
-    <t>in lake</t>
-  </si>
-  <si>
     <t>6 km lake, Saltspring Island</t>
   </si>
   <si>
@@ -3375,9 +3338,6 @@
     <t>vElevReference</t>
   </si>
   <si>
-    <t>degreeSystem</t>
-  </si>
-  <si>
     <t>recordedBy</t>
   </si>
   <si>
@@ -3405,9 +3365,6 @@
     <t>unsure what the status is of this taxon and what it is now considered. No clean answer on iNaturalist</t>
   </si>
   <si>
-    <t>Rhynchospora alba</t>
-  </si>
-  <si>
     <t>numPlantsCode</t>
   </si>
   <si>
@@ -3418,13 +3375,376 @@
   </si>
   <si>
     <t>individuals</t>
+  </si>
+  <si>
+    <t>Ledum groenlandicum</t>
+  </si>
+  <si>
+    <t>Rhododendron groenlandicum</t>
+  </si>
+  <si>
+    <t>Spiraea douglasii</t>
+  </si>
+  <si>
+    <t>Hypericum anagalloides</t>
+  </si>
+  <si>
+    <t>Viola palustris</t>
+  </si>
+  <si>
+    <t>Dulichium arundinaceum</t>
+  </si>
+  <si>
+    <t>HJC-2630</t>
+  </si>
+  <si>
+    <t>Carex lenticularis</t>
+  </si>
+  <si>
+    <t>Lycopus unif</t>
+  </si>
+  <si>
+    <t>Juncus ensifolius</t>
+  </si>
+  <si>
+    <t>Carex acuta|Rhynchospora alba</t>
+  </si>
+  <si>
+    <t>HJC-2634|HJC-2635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occycoeus o. </t>
+  </si>
+  <si>
+    <t>levger mat with 60% ledum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could not decipher first part. What type of mat with Ledum? </t>
+  </si>
+  <si>
+    <t>could not decipher genus name</t>
+  </si>
+  <si>
+    <t>Kalmia polifolia</t>
+  </si>
+  <si>
+    <t>Eriophorum l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renamed to macrorhiza? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">floating in lake </t>
+  </si>
+  <si>
+    <t>floating in lake</t>
+  </si>
+  <si>
+    <t>shore</t>
+  </si>
+  <si>
+    <t>Ranunculus flammula</t>
+  </si>
+  <si>
+    <t>5.6 km fen, Saltspring Island</t>
+  </si>
+  <si>
+    <t>Juncus effusus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fen </t>
+  </si>
+  <si>
+    <t>fen</t>
+  </si>
+  <si>
+    <t>Torreyochloa pallida pauciflora</t>
+  </si>
+  <si>
+    <t>Torreyochloa pauciflora</t>
+  </si>
+  <si>
+    <t>edge of fen</t>
+  </si>
+  <si>
+    <t>Salix scouleriana</t>
+  </si>
+  <si>
+    <t>edge of lake</t>
+  </si>
+  <si>
+    <t>Potamogeton obtusifolius</t>
+  </si>
+  <si>
+    <t>HJC-2636</t>
+  </si>
+  <si>
+    <t>Cusheon Lake, Saltspring Island</t>
+  </si>
+  <si>
+    <t>Elodea canadensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuphar p </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>east end of Cusheon Lake, Saltspring Island</t>
+  </si>
+  <si>
+    <t>Cicuta douglasii</t>
+  </si>
+  <si>
+    <t>Sium suave</t>
+  </si>
+  <si>
+    <t>north end of Cusheon Lake, Saltspring Island</t>
+  </si>
+  <si>
+    <t>Lysimachia thyrsiflora</t>
+  </si>
+  <si>
+    <t>Lythrum thyrsiflora</t>
+  </si>
+  <si>
+    <t>Salix l</t>
+  </si>
+  <si>
+    <t>uncertain of the specific epiphet</t>
+  </si>
+  <si>
+    <t>Salix scouler</t>
+  </si>
+  <si>
+    <t>Cornus stolonifera</t>
+  </si>
+  <si>
+    <t>Cornus sericea</t>
+  </si>
+  <si>
+    <t>Spiraea d</t>
+  </si>
+  <si>
+    <t>Bullocks Pond, Saltspring Island</t>
+  </si>
+  <si>
+    <t>Typha l</t>
+  </si>
+  <si>
+    <t>Salix sarale</t>
+  </si>
+  <si>
+    <t>shore, behind Potentilla palustris (Comarum palustre)</t>
+  </si>
+  <si>
+    <t>Potentilla p</t>
+  </si>
+  <si>
+    <t>uncertain of specific epiphet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuphar </t>
+  </si>
+  <si>
+    <t>floating</t>
+  </si>
+  <si>
+    <t>Oenanthe sarmentosa</t>
+  </si>
+  <si>
+    <t>Phalaris arundinacea</t>
+  </si>
+  <si>
+    <t>Maxwell Lake, Saltspring Island</t>
+  </si>
+  <si>
+    <t>Nuphar p</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2641</t>
+  </si>
+  <si>
+    <t>Potamogeton obtusifolius | Carex acuta | Ranunculus aquatilis | Callitriche</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2642</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2643</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2644</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2645</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2646</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2647</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2648</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2649</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2650</t>
+  </si>
+  <si>
+    <t>Lycopus d</t>
+  </si>
+  <si>
+    <t>Lycopus</t>
+  </si>
+  <si>
+    <t>Juncus angustif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perhaps Typha angustifolia? </t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2651</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2652</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2653</t>
+  </si>
+  <si>
+    <t>HJC-2637 | HJC 2638 | HJC-2640| HJC-2654</t>
+  </si>
+  <si>
+    <t>lower end of Maxwell Lake, Saltspring Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scirpus acutus and Spiraea swamp </t>
+  </si>
+  <si>
+    <t>Eleocharis p</t>
+  </si>
+  <si>
+    <t>Sparganium e</t>
+  </si>
+  <si>
+    <t>Sparganium em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertain of specific epiphet. Previous page had "em" for emersum. Does just "e" mean Sparganium eurycarpum? </t>
+  </si>
+  <si>
+    <t>Carex exciccata</t>
+  </si>
+  <si>
+    <t>Myosotis laxa</t>
+  </si>
+  <si>
+    <t>Blackburn Lake, Saltspring Island</t>
+  </si>
+  <si>
+    <t>Typha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edge of lake </t>
+  </si>
+  <si>
+    <t>mostly Typha at edge</t>
+  </si>
+  <si>
+    <t>Potamogeton robinsii</t>
+  </si>
+  <si>
+    <t>Potamogeton as Cusheon lake ex amplif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornus </t>
+  </si>
+  <si>
+    <t>Texada</t>
+  </si>
+  <si>
+    <t>Northern Gulf Islands</t>
+  </si>
+  <si>
+    <t>Veronica arvensis</t>
+  </si>
+  <si>
+    <t>10U 394010 5501120</t>
+  </si>
+  <si>
+    <t>49 39 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124 28 06 </t>
+  </si>
+  <si>
+    <t>east end of Dick Island, Harwood Point, Texada Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almost dry vernal pool at high tide line  </t>
+  </si>
+  <si>
+    <t>Grindelia i</t>
+  </si>
+  <si>
+    <t>Grindelia integrifolia</t>
+  </si>
+  <si>
+    <t>Allium cernuum</t>
+  </si>
+  <si>
+    <t>Holcus lanatus</t>
+  </si>
+  <si>
+    <t>Mimulus guttatus</t>
+  </si>
+  <si>
+    <t>Juncus bufonius</t>
+  </si>
+  <si>
+    <t>Plantago elongata</t>
+  </si>
+  <si>
+    <t>HJC-2643 | HJC-2644 | HJC-2645 | HJC-2646 | HJC-2647 | HJC-2648 | HJC-2649</t>
+  </si>
+  <si>
+    <t>Myosurus minimus | Hordeum brachyantherum | Festuca rubra | Daucus pusillus | Sedum oreganum</t>
+  </si>
+  <si>
+    <t>HJC-2643 | HJC-2644 | HJC-2645 | HJC-2646 | HJC-2647 | HJC-2648 | HJC-2650</t>
+  </si>
+  <si>
+    <t>HJC-2643 | HJC-2644 | HJC-2645 | HJC-2646 | HJC-2647 | HJC-2648 | HJC-2651</t>
+  </si>
+  <si>
+    <t>HJC-2643 | HJC-2644 | HJC-2645 | HJC-2646 | HJC-2647 | HJC-2648 | HJC-2652</t>
+  </si>
+  <si>
+    <t>HJC-2643 | HJC-2644 | HJC-2645 | HJC-2646 | HJC-2647 | HJC-2648 | HJC-2653</t>
+  </si>
+  <si>
+    <t>HJC-2643 | HJC-2644 | HJC-2645 | HJC-2646 | HJC-2647 | HJC-2648 | HJC-2654</t>
+  </si>
+  <si>
+    <t>HJC-2643 | HJC-2644 | HJC-2645 | HJC-2646 | HJC-2647 | HJC-2648 | HJC-2655</t>
+  </si>
+  <si>
+    <t>Dick Island, Texada Island</t>
+  </si>
+  <si>
+    <t>10U 393970 5500950</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3472,12 +3792,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3568,10 +3882,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3891,18 +4205,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AH123"/>
+  <dimension ref="A1:AG194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AB95" sqref="AB95"/>
+      <selection pane="bottomLeft" activeCell="T190" sqref="T190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="4" customWidth="1"/>
@@ -3920,22 +4235,22 @@
     <col min="18" max="19" width="8.5" style="4" customWidth="1"/>
     <col min="20" max="20" width="16.83203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="23" width="8.6640625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="19.1640625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="7.5" style="4" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="11.1640625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="13" style="4" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" style="4"/>
-    <col min="32" max="32" width="14.33203125" style="4" customWidth="1"/>
-    <col min="33" max="33" width="29.5" style="4" customWidth="1"/>
-    <col min="34" max="34" width="70.6640625" style="4" customWidth="1"/>
-    <col min="35" max="16384" width="10.83203125" style="4"/>
+    <col min="22" max="22" width="11.6640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="7.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="11.1640625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="13" style="4" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="4"/>
+    <col min="31" max="31" width="14.33203125" style="4" customWidth="1"/>
+    <col min="32" max="32" width="29.5" style="4" customWidth="1"/>
+    <col min="33" max="33" width="70.6640625" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
@@ -3946,7 +4261,7 @@
         <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
@@ -3991,7 +4306,7 @@
         <v>9</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>5</v>
@@ -4003,43 +4318,40 @@
         <v>11</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="AE1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="AF1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>166</v>
       </c>
@@ -4088,21 +4400,21 @@
       <c r="P2" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
+      <c r="Z2" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="AA2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2"/>
       <c r="AG2"/>
-      <c r="AH2"/>
-    </row>
-    <row r="3" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>166</v>
       </c>
@@ -4154,14 +4466,14 @@
       <c r="Q3" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3"/>
-      <c r="AD3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH3"/>
-    </row>
-    <row r="4" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3"/>
+    </row>
+    <row r="4" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>166</v>
       </c>
@@ -4210,11 +4522,11 @@
       <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>166</v>
       </c>
@@ -4266,12 +4578,12 @@
       <c r="Q5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH5"/>
-    </row>
-    <row r="6" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5"/>
+    </row>
+    <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>166</v>
       </c>
@@ -4323,12 +4635,12 @@
       <c r="Q6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH6"/>
-    </row>
-    <row r="7" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6"/>
+    </row>
+    <row r="7" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>166</v>
       </c>
@@ -4377,11 +4689,11 @@
       <c r="P7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>166</v>
       </c>
@@ -4433,12 +4745,12 @@
       <c r="Q8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH8"/>
-    </row>
-    <row r="9" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG8"/>
+    </row>
+    <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>166</v>
       </c>
@@ -4487,12 +4799,12 @@
       <c r="P9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9"/>
-    </row>
-    <row r="10" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG9"/>
+    </row>
+    <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>166</v>
       </c>
@@ -4544,12 +4856,12 @@
       <c r="Q10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH10"/>
-    </row>
-    <row r="11" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10"/>
+    </row>
+    <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>166</v>
       </c>
@@ -4602,12 +4914,12 @@
         <v>77</v>
       </c>
       <c r="T11"/>
-      <c r="AD11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH11"/>
-    </row>
-    <row r="12" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG11"/>
+    </row>
+    <row r="12" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>166</v>
       </c>
@@ -4660,20 +4972,20 @@
         <v>77</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH12"/>
-    </row>
-    <row r="13" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG12"/>
+    </row>
+    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>166</v>
       </c>
@@ -4726,15 +5038,15 @@
         <v>77</v>
       </c>
       <c r="T13"/>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>80</v>
       </c>
-      <c r="AD13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH13"/>
-    </row>
-    <row r="14" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG13"/>
+    </row>
+    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>166</v>
       </c>
@@ -4787,12 +5099,12 @@
         <v>77</v>
       </c>
       <c r="T14"/>
-      <c r="AD14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH14"/>
-    </row>
-    <row r="15" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>166</v>
       </c>
@@ -4845,12 +5157,12 @@
         <v>77</v>
       </c>
       <c r="T15"/>
-      <c r="AD15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH15"/>
-    </row>
-    <row r="16" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>166</v>
       </c>
@@ -4903,12 +5215,12 @@
         <v>77</v>
       </c>
       <c r="T16"/>
-      <c r="AD16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH16"/>
-    </row>
-    <row r="17" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>166</v>
       </c>
@@ -4961,12 +5273,12 @@
         <v>77</v>
       </c>
       <c r="T17"/>
-      <c r="AD17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH17"/>
-    </row>
-    <row r="18" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>166</v>
       </c>
@@ -5019,12 +5331,12 @@
         <v>77</v>
       </c>
       <c r="T18"/>
-      <c r="AD18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH18"/>
-    </row>
-    <row r="19" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG18"/>
+    </row>
+    <row r="19" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>166</v>
       </c>
@@ -5077,12 +5389,12 @@
         <v>77</v>
       </c>
       <c r="T19"/>
-      <c r="AD19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH19"/>
-    </row>
-    <row r="20" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG19"/>
+    </row>
+    <row r="20" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>166</v>
       </c>
@@ -5135,12 +5447,12 @@
         <v>77</v>
       </c>
       <c r="T20"/>
-      <c r="AD20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH20"/>
-    </row>
-    <row r="21" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG20"/>
+    </row>
+    <row r="21" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>166</v>
       </c>
@@ -5193,12 +5505,12 @@
         <v>77</v>
       </c>
       <c r="T21"/>
-      <c r="AD21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH21"/>
-    </row>
-    <row r="22" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>166</v>
       </c>
@@ -5251,12 +5563,12 @@
         <v>77</v>
       </c>
       <c r="T22"/>
-      <c r="AD22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH22"/>
-    </row>
-    <row r="23" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG22"/>
+    </row>
+    <row r="23" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>166</v>
       </c>
@@ -5309,12 +5621,12 @@
         <v>77</v>
       </c>
       <c r="T23"/>
-      <c r="AD23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH23"/>
-    </row>
-    <row r="24" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG23"/>
+    </row>
+    <row r="24" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>166</v>
       </c>
@@ -5367,14 +5679,14 @@
         <v>78</v>
       </c>
       <c r="T24"/>
-      <c r="AD24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AC24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>166</v>
       </c>
@@ -5427,12 +5739,12 @@
         <v>78</v>
       </c>
       <c r="T25"/>
-      <c r="AD25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH25"/>
-    </row>
-    <row r="26" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG25"/>
+    </row>
+    <row r="26" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>166</v>
       </c>
@@ -5485,12 +5797,12 @@
         <v>79</v>
       </c>
       <c r="T26"/>
-      <c r="AD26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH26"/>
-    </row>
-    <row r="27" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="AC26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG26"/>
+    </row>
+    <row r="27" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>166</v>
       </c>
@@ -5503,11 +5815,13 @@
       <c r="D27" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F27"/>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>160</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -5541,12 +5855,12 @@
         <v>161</v>
       </c>
       <c r="T27"/>
-      <c r="AD27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH27"/>
-    </row>
-    <row r="28" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27"/>
+    </row>
+    <row r="28" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>166</v>
       </c>
@@ -5598,14 +5912,14 @@
       <c r="T28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AD28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>166</v>
       </c>
@@ -5657,14 +5971,14 @@
       <c r="T29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AD29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>166</v>
       </c>
@@ -5716,14 +6030,14 @@
       <c r="T30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AD30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>166</v>
       </c>
@@ -5775,17 +6089,17 @@
       <c r="T31" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="AB31" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="AC31" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>166</v>
       </c>
@@ -5834,11 +6148,11 @@
       <c r="P32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD32" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>166</v>
       </c>
@@ -5887,11 +6201,11 @@
       <c r="P33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD33" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>166</v>
       </c>
@@ -5943,11 +6257,11 @@
       <c r="Q34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD34" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>166</v>
       </c>
@@ -5999,11 +6313,11 @@
       <c r="Q35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD35" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>166</v>
       </c>
@@ -6055,11 +6369,11 @@
       <c r="Q36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD36" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC36" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>166</v>
       </c>
@@ -6108,11 +6422,11 @@
       <c r="P37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD37" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC37" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>166</v>
       </c>
@@ -6161,11 +6475,11 @@
       <c r="P38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD38" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC38" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>166</v>
       </c>
@@ -6214,11 +6528,11 @@
       <c r="P39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD39" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>166</v>
       </c>
@@ -6267,11 +6581,11 @@
       <c r="P40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD40" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC40" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>166</v>
       </c>
@@ -6320,11 +6634,11 @@
       <c r="P41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD41" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>166</v>
       </c>
@@ -6373,11 +6687,11 @@
       <c r="P42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD42" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC42" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>166</v>
       </c>
@@ -6426,11 +6740,11 @@
       <c r="P43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD43" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
@@ -6479,11 +6793,11 @@
       <c r="P44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD44" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>166</v>
       </c>
@@ -6532,11 +6846,11 @@
       <c r="P45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD45" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>166</v>
       </c>
@@ -6585,11 +6899,11 @@
       <c r="P46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD46" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC46" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>166</v>
       </c>
@@ -6639,19 +6953,19 @@
         <v>24</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AD47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH47" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>166</v>
       </c>
@@ -6703,11 +7017,11 @@
       <c r="Q48" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD48" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC48" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>166</v>
       </c>
@@ -6759,11 +7073,11 @@
       <c r="Q49" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD49" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC49" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -6815,11 +7129,11 @@
       <c r="Q50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD50" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC50" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>166</v>
       </c>
@@ -6871,11 +7185,11 @@
       <c r="Q51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD51" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC51" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>166</v>
       </c>
@@ -6927,11 +7241,11 @@
       <c r="Q52" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD52" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC52" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>166</v>
       </c>
@@ -6983,11 +7297,11 @@
       <c r="Q53" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD53" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC53" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>166</v>
       </c>
@@ -7039,11 +7353,11 @@
       <c r="Q54" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD54" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC54" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>166</v>
       </c>
@@ -7095,11 +7409,11 @@
       <c r="Q55" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD55" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>166</v>
       </c>
@@ -7151,11 +7465,11 @@
       <c r="Q56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD56" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>166</v>
       </c>
@@ -7207,11 +7521,11 @@
       <c r="Q57" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AD57" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>166</v>
       </c>
@@ -7263,14 +7577,14 @@
       <c r="Q58" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AD58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH58" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG58" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>166</v>
       </c>
@@ -7319,17 +7633,14 @@
       <c r="P59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA59" s="4" t="s">
+      <c r="AB59" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AB59" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD59" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC59" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>166</v>
       </c>
@@ -7381,11 +7692,11 @@
       <c r="Q60" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AD60" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC60" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>166</v>
       </c>
@@ -7437,11 +7748,11 @@
       <c r="Q61" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AD61" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC61" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>166</v>
       </c>
@@ -7493,11 +7804,11 @@
       <c r="Q62" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AD62" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC62" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>166</v>
       </c>
@@ -7549,11 +7860,11 @@
       <c r="Q63" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AD63" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC63" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>166</v>
       </c>
@@ -7605,14 +7916,14 @@
       <c r="Q64" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z64" s="4">
+      <c r="Y64" s="4">
         <v>1</v>
       </c>
-      <c r="AD64" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC64" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>169</v>
       </c>
@@ -7661,11 +7972,11 @@
       <c r="Q65" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD65" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC65" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>169</v>
       </c>
@@ -7714,11 +8025,11 @@
       <c r="Q66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD66" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC66" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>169</v>
       </c>
@@ -7767,11 +8078,11 @@
       <c r="Q67" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD67" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC67" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>169</v>
       </c>
@@ -7820,11 +8131,11 @@
       <c r="Q68" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD68" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC68" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>169</v>
       </c>
@@ -7873,11 +8184,11 @@
       <c r="Q69" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD69" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC69" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>169</v>
       </c>
@@ -7926,11 +8237,11 @@
       <c r="Q70" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD70" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC70" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>169</v>
       </c>
@@ -7970,14 +8281,14 @@
       <c r="Q71" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH71" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG71" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>169</v>
       </c>
@@ -8026,11 +8337,11 @@
       <c r="Q72" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD72" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC72" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>169</v>
       </c>
@@ -8079,11 +8390,11 @@
       <c r="Q73" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD73" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC73" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>169</v>
       </c>
@@ -8132,11 +8443,11 @@
       <c r="Q74" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD74" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC74" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>169</v>
       </c>
@@ -8185,11 +8496,11 @@
       <c r="Q75" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD75" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC75" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
@@ -8238,11 +8549,11 @@
       <c r="Q76" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD76" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC76" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>169</v>
       </c>
@@ -8291,11 +8602,11 @@
       <c r="Q77" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD77" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
@@ -8344,11 +8655,11 @@
       <c r="Q78" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD78" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC78" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>169</v>
       </c>
@@ -8394,14 +8705,14 @@
       <c r="P79" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="AB79" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AC79" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD79" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>169</v>
       </c>
@@ -8447,17 +8758,17 @@
       <c r="P80" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="AB80" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AC80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD80" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH80" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="AG80" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>169</v>
       </c>
@@ -8503,17 +8814,17 @@
       <c r="P81" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="AB81" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AC81" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH81" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="AG81" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>169</v>
       </c>
@@ -8559,17 +8870,17 @@
       <c r="P82" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="AB82" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AC82" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD82" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH82" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="AG82" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>169</v>
       </c>
@@ -8618,11 +8929,11 @@
       <c r="Q83" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD83" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC83" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>169</v>
       </c>
@@ -8671,14 +8982,14 @@
       <c r="Q84" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="AB84" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="AC84" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD84" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>169</v>
       </c>
@@ -8727,14 +9038,17 @@
       <c r="Q85" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD85" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG85" s="4" t="s">
+      <c r="AC85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE85" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF85" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>169</v>
       </c>
@@ -8783,14 +9097,17 @@
       <c r="Q86" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AD86" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG86" s="4" t="s">
+      <c r="AC86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE86" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF86" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>169</v>
       </c>
@@ -8837,13 +9154,13 @@
         <v>174</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD87" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="AC87" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>169</v>
       </c>
@@ -8862,9 +9179,6 @@
       <c r="F88" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="H88" s="4" t="s">
         <v>172</v>
       </c>
@@ -8890,13 +9204,16 @@
         <v>174</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD88" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG88" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>169</v>
       </c>
@@ -8945,11 +9262,11 @@
       <c r="Q89" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AD89" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC89" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>169</v>
       </c>
@@ -8998,11 +9315,11 @@
       <c r="Q90" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AD90" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC90" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>169</v>
       </c>
@@ -9051,11 +9368,11 @@
       <c r="Q91" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AD91" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC91" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>169</v>
       </c>
@@ -9104,11 +9421,11 @@
       <c r="Q92" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AD92" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="AC92" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>169</v>
       </c>
@@ -9157,14 +9474,14 @@
       <c r="Q93" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="AB93" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="AC93" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD93" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>169</v>
       </c>
@@ -9213,14 +9530,14 @@
       <c r="Q94" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="AB94" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="AC94" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD94" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>169</v>
       </c>
@@ -9239,7 +9556,7 @@
       <c r="F95" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="5" t="s">
         <v>192</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -9269,11 +9586,11 @@
       <c r="Q95" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AD95" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC95" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>169</v>
       </c>
@@ -9322,11 +9639,11 @@
       <c r="Q96" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AD96" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC96" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>169</v>
       </c>
@@ -9345,9 +9662,6 @@
       <c r="F97" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="H97" s="4" t="s">
         <v>172</v>
       </c>
@@ -9375,11 +9689,14 @@
       <c r="Q97" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AD97" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC97" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG97" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>169</v>
       </c>
@@ -9398,7 +9715,7 @@
       <c r="F98" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="5" t="s">
         <v>195</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -9428,11 +9745,11 @@
       <c r="Q98" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AD98" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC98" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>169</v>
       </c>
@@ -9481,11 +9798,11 @@
       <c r="Q99" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD99" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC99" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>169</v>
       </c>
@@ -9504,7 +9821,7 @@
       <c r="F100" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G100" s="5" t="s">
         <v>226</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -9534,11 +9851,11 @@
       <c r="Q100" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD100" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC100" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>169</v>
       </c>
@@ -9578,14 +9895,14 @@
       <c r="Q101" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD101" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH101" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG101" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>169</v>
       </c>
@@ -9634,11 +9951,11 @@
       <c r="Q102" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD102" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC102" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>169</v>
       </c>
@@ -9687,11 +10004,11 @@
       <c r="Q103" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD103" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC103" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>169</v>
       </c>
@@ -9740,11 +10057,11 @@
       <c r="Q104" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD104" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC104" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>169</v>
       </c>
@@ -9793,11 +10110,11 @@
       <c r="Q105" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD105" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC105" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>169</v>
       </c>
@@ -9846,11 +10163,11 @@
       <c r="Q106" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD106" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="AC106" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>169</v>
       </c>
@@ -9899,11 +10216,11 @@
       <c r="Q107" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD107" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC107" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>169</v>
       </c>
@@ -9935,7 +10252,7 @@
         <v>19961030</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>20</v>
@@ -9953,19 +10270,19 @@
         <v>234</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="T108" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="AB108" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="AC108" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD108" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>169</v>
       </c>
@@ -9976,10 +10293,10 @@
         <v>11</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>34</v>
@@ -9991,7 +10308,7 @@
         <v>19961030</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>20</v>
@@ -10008,18 +10325,24 @@
       <c r="P109" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="Z109" s="4">
+      <c r="Y109" s="4">
         <v>3</v>
       </c>
-      <c r="AD109" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH109" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+      <c r="AC109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE109" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF109" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG109" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B110" s="4">
@@ -10029,16 +10352,16 @@
         <v>12</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>18</v>
@@ -10050,7 +10373,7 @@
         <v>19961030</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L110" s="4" t="s">
         <v>20</v>
@@ -10067,31 +10390,40 @@
       <c r="P110" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="Z110" s="4">
+      <c r="Y110" s="4">
         <v>1</v>
       </c>
-      <c r="AD110" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+      <c r="AC110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF110" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B111" s="4">
         <v>4</v>
       </c>
+      <c r="C111" s="4">
+        <v>2</v>
+      </c>
       <c r="D111" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>18</v>
@@ -10103,7 +10435,7 @@
         <v>19961030</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L111" s="4" t="s">
         <v>20</v>
@@ -10120,125 +10452,4876 @@
       <c r="P111" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="AD111" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
+      <c r="AC111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE111" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF111" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B112" s="4">
         <v>4</v>
       </c>
+      <c r="C112" s="4">
+        <v>3</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J112" s="4">
         <v>19961030</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
+      <c r="K112" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y112" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE112" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF112" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B113" s="4">
         <v>4</v>
       </c>
+      <c r="C113" s="4">
+        <v>4</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J113" s="4">
         <v>19961030</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+      <c r="K113" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y113" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE113" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF113" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B114" s="4">
         <v>4</v>
       </c>
+      <c r="C114" s="4">
+        <v>5</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J114" s="4">
         <v>19961030</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+      <c r="K114" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE114" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF114" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B115" s="4">
         <v>4</v>
       </c>
+      <c r="C115" s="4">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J115" s="4">
         <v>19961030</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
+      <c r="K115" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE115" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF115" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B116" s="4">
         <v>4</v>
       </c>
+      <c r="C116" s="4">
+        <v>7</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J116" s="4">
         <v>19961030</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
+      <c r="K116" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE116" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF116" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B117" s="4">
         <v>4</v>
       </c>
+      <c r="C117" s="4">
+        <v>8</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J117" s="4">
         <v>19961030</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
+      <c r="K117" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y117" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE117" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF117" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B118" s="4">
         <v>4</v>
       </c>
+      <c r="C118" s="4">
+        <v>9</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J118" s="4">
         <v>19961030</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+      <c r="K118" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P118" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y118" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF118" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B119" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+      <c r="C119" s="4">
+        <v>10</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P119" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y119" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC119" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE119" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF119" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B120" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+      <c r="C120" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P120" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y120" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF120" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B121" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
+      <c r="C121" s="4">
+        <v>12</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y121" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE121" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF121" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B122" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+      <c r="C122" s="4">
+        <v>13</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P122" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y122" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE122" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF122" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B123" s="4">
         <v>4</v>
+      </c>
+      <c r="C123" s="4">
+        <v>14</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J123" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P123" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y123" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC123" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF123" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG123" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="4">
+        <v>4</v>
+      </c>
+      <c r="C124" s="4">
+        <v>15</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P124" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y124" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE124" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF124" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG124" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="4">
+        <v>4</v>
+      </c>
+      <c r="C125" s="4">
+        <v>16</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P125" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y125" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF125" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="4">
+        <v>4</v>
+      </c>
+      <c r="C126" s="4">
+        <v>17</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O126" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P126" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG126" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="4">
+        <v>4</v>
+      </c>
+      <c r="C127" s="4">
+        <v>18</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P127" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC127" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG127" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="4">
+        <v>4</v>
+      </c>
+      <c r="C128" s="4">
+        <v>19</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P128" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q128" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC128" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="4">
+        <v>4</v>
+      </c>
+      <c r="C129" s="4">
+        <v>20</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P129" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q129" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC129" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="4">
+        <v>5</v>
+      </c>
+      <c r="C130" s="4">
+        <v>1</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="4">
+        <v>19961030</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P130" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q130" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y130" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC130" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="4">
+        <v>5</v>
+      </c>
+      <c r="C131" s="4">
+        <v>2</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q131" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y131" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="4">
+        <v>5</v>
+      </c>
+      <c r="C132" s="4">
+        <v>3</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y132" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="4">
+        <v>5</v>
+      </c>
+      <c r="C133" s="4">
+        <v>4</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O133" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P133" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC133" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="4">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4">
+        <v>5</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O134" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P134" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q134" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y134" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC134" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE134" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF134" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="4">
+        <v>5</v>
+      </c>
+      <c r="C135" s="4">
+        <v>6</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P135" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q135" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y135" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC135" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE135" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF135" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="4">
+        <v>5</v>
+      </c>
+      <c r="C136" s="4">
+        <v>7</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O136" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P136" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE136" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF136" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="4">
+        <v>5</v>
+      </c>
+      <c r="C137" s="4">
+        <v>8</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P137" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q137" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC137" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE137" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF137" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B138" s="4">
+        <v>5</v>
+      </c>
+      <c r="C138" s="4">
+        <v>9</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O138" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P138" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q138" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC138" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE138" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF138" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="4">
+        <v>5</v>
+      </c>
+      <c r="C139" s="4">
+        <v>10</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N139" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O139" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P139" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q139" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC139" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE139" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF139" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="4">
+        <v>5</v>
+      </c>
+      <c r="C140" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P140" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC140" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE140" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF140" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="4">
+        <v>5</v>
+      </c>
+      <c r="C141" s="4">
+        <v>12</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N141" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O141" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P141" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q141" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC141" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" s="4">
+        <v>5</v>
+      </c>
+      <c r="C142" s="4">
+        <v>13</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N142" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P142" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q142" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC142" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" s="4">
+        <v>5</v>
+      </c>
+      <c r="C143" s="4">
+        <v>14</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O143" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P143" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC143" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="4">
+        <v>5</v>
+      </c>
+      <c r="C144" s="4">
+        <v>15</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N144" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O144" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC144" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG144" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="4">
+        <v>5</v>
+      </c>
+      <c r="C145" s="4">
+        <v>16</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O145" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P145" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC145" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="4">
+        <v>5</v>
+      </c>
+      <c r="C146" s="4">
+        <v>17</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O146" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P146" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC146" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="4">
+        <v>5</v>
+      </c>
+      <c r="C147" s="4">
+        <v>18</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O147" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q147" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC147" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="4">
+        <v>6</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P148" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q148" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y148" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC148" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG148" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="4">
+        <v>6</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N149" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O149" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P149" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q149" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC149" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="4">
+        <v>6</v>
+      </c>
+      <c r="C150" s="4">
+        <v>3</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N150" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O150" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P150" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC150" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG150" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="4">
+        <v>6</v>
+      </c>
+      <c r="C151" s="4">
+        <v>4</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N151" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O151" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P151" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q151" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC151" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="4">
+        <v>6</v>
+      </c>
+      <c r="C152" s="4">
+        <v>5</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O152" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P152" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC152" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="4">
+        <v>6</v>
+      </c>
+      <c r="C153" s="4">
+        <v>6</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P153" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q153" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC153" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B154" s="4">
+        <v>6</v>
+      </c>
+      <c r="C154" s="4">
+        <v>7</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N154" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O154" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P154" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC154" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" s="4">
+        <v>6</v>
+      </c>
+      <c r="C155" s="4">
+        <v>8</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N155" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O155" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P155" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC155" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B156" s="4">
+        <v>6</v>
+      </c>
+      <c r="C156" s="4">
+        <v>9</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P156" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC156" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="4">
+        <v>6</v>
+      </c>
+      <c r="C157" s="4">
+        <v>10</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M157" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O157" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P157" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC157" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE157" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF157" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="4">
+        <v>6</v>
+      </c>
+      <c r="C158" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O158" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P158" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC158" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE158" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF158" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="4">
+        <v>6</v>
+      </c>
+      <c r="C159" s="4">
+        <v>12</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L159" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M159" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O159" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P159" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC159" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE159" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF159" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="4">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4">
+        <v>13</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O160" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P160" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC160" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE160" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF160" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="4">
+        <v>6</v>
+      </c>
+      <c r="C161" s="4">
+        <v>14</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M161" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O161" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P161" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC161" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE161" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF161" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" s="4">
+        <v>6</v>
+      </c>
+      <c r="C162" s="4">
+        <v>15</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O162" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P162" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC162" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE162" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF162" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="4">
+        <v>6</v>
+      </c>
+      <c r="C163" s="4">
+        <v>16</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L163" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M163" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N163" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O163" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P163" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC163" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE163" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF163" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG163" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="4">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4">
+        <v>17</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J164" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N164" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O164" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P164" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC164" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE164" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF164" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG164" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="4">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4">
+        <v>18</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L165" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O165" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P165" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC165" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE165" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF165" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="4">
+        <v>6</v>
+      </c>
+      <c r="C166" s="4">
+        <v>19</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O166" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P166" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC166" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE166" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF166" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" s="4">
+        <v>7</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L167" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O167" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P167" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC167" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE167" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF167" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="4">
+        <v>7</v>
+      </c>
+      <c r="C168" s="4">
+        <v>2</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O168" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P168" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE168" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF168" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="4">
+        <v>7</v>
+      </c>
+      <c r="C169" s="4">
+        <v>3</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L169" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O169" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P169" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC169" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE169" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF169" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4">
+        <v>7</v>
+      </c>
+      <c r="C170" s="4">
+        <v>4</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N170" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O170" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P170" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC170" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE170" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF170" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="4">
+        <v>7</v>
+      </c>
+      <c r="C171" s="4">
+        <v>5</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L171" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M171" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P171" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q171" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC171" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" s="4">
+        <v>7</v>
+      </c>
+      <c r="C172" s="4">
+        <v>6</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O172" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P172" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q172" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC172" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" s="4">
+        <v>7</v>
+      </c>
+      <c r="C173" s="4">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L173" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M173" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N173" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O173" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P173" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC173" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="4">
+        <v>7</v>
+      </c>
+      <c r="C174" s="4">
+        <v>8</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O174" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P174" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q174" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC174" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG174" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="4">
+        <v>7</v>
+      </c>
+      <c r="C175" s="4">
+        <v>9</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M175" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N175" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O175" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P175" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q175" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG175" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176" s="4">
+        <v>7</v>
+      </c>
+      <c r="C176" s="4">
+        <v>10</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N176" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O176" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P176" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC176" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="4">
+        <v>7</v>
+      </c>
+      <c r="C177" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L177" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N177" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O177" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P177" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q177" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC177" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B178" s="4">
+        <v>7</v>
+      </c>
+      <c r="C178" s="4">
+        <v>12</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O178" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P178" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q178" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC178" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" s="4">
+        <v>7</v>
+      </c>
+      <c r="C179" s="4">
+        <v>13</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L179" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M179" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N179" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O179" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P179" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q179" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y179" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB179" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC179" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="4">
+        <v>7</v>
+      </c>
+      <c r="C180" s="4">
+        <v>14</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J180" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O180" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P180" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q180" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC180" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B181" s="4">
+        <v>7</v>
+      </c>
+      <c r="C181" s="4">
+        <v>15</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M181" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N181" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O181" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P181" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q181" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB181" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC181" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="4">
+        <v>7</v>
+      </c>
+      <c r="C182" s="4">
+        <v>16</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J182" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O182" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P182" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q182" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC182" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183" s="4">
+        <v>7</v>
+      </c>
+      <c r="C183" s="4">
+        <v>17</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J183" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L183" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M183" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N183" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O183" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P183" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q183" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC183" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="4">
+        <v>7</v>
+      </c>
+      <c r="C184" s="4">
+        <v>18</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O184" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P184" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q184" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC184" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="4">
+        <v>7</v>
+      </c>
+      <c r="C185" s="4">
+        <v>19</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M185" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O185" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P185" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q185" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC185" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A186" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="4">
+        <v>7</v>
+      </c>
+      <c r="C186" s="4">
+        <v>20</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J186" s="5">
+        <v>19961030</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O186" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC186" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="4">
+        <v>8</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J187" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M187" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O187" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P187" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q187" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U187" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V187" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W187" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC187" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE187" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF187" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="4">
+        <v>8</v>
+      </c>
+      <c r="C188" s="4">
+        <v>2</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N188" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O188" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P188" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q188" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U188" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V188" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W188" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC188" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE188" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF188" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189" s="4">
+        <v>8</v>
+      </c>
+      <c r="C189" s="4">
+        <v>3</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J189" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L189" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N189" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O189" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P189" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q189" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U189" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V189" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W189" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC189" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE189" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF189" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B190" s="4">
+        <v>8</v>
+      </c>
+      <c r="C190" s="4">
+        <v>4</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J190" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O190" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q190" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U190" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V190" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W190" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC190" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE190" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF190" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="191" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="4">
+        <v>8</v>
+      </c>
+      <c r="C191" s="4">
+        <v>5</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L191" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N191" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O191" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P191" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q191" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U191" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V191" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W191" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC191" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE191" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF191" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B192" s="4">
+        <v>8</v>
+      </c>
+      <c r="C192" s="4">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J192" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O192" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P192" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U192" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V192" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W192" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC192" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE192" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF192" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="4">
+        <v>8</v>
+      </c>
+      <c r="C193" s="4">
+        <v>7</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J193" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L193" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M193" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N193" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O193" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P193" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q193" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U193" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V193" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W193" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE193" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF193" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" s="4">
+        <v>9</v>
+      </c>
+      <c r="J194" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N194" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O194" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="P194" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="W194" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
